--- a/Fizyka_Sprawka/Lab1_Cw100/FinalPrinted - Repaired.xlsx
+++ b/Fizyka_Sprawka/Lab1_Cw100/FinalPrinted - Repaired.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="100a" sheetId="4" r:id="rId1"/>
@@ -1133,22 +1133,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1202,6 +1188,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1210,6 +1211,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1228,24 +1247,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1331,16 +1332,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1779,8 +1779,8 @@
       <xdr:rowOff>41284</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1748116" cy="486514"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1984,7 +1984,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2057,7 +2057,7 @@
                                           <a:schemeClr val="tx1"/>
                                         </a:solidFill>
                                         <a:effectLst/>
-                                        <a:latin typeface="+mn-lt"/>
+                                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                         <a:ea typeface="+mn-ea"/>
                                         <a:cs typeface="+mn-cs"/>
                                       </a:rPr>
@@ -2140,7 +2140,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -2459,8 +2459,8 @@
       <xdr:rowOff>59318</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2353234" cy="234596"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -2538,7 +2538,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -2570,7 +2570,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -2669,8 +2669,8 @@
       <xdr:rowOff>76946</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1799852" cy="500137"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -2750,7 +2750,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -2829,7 +2829,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -2958,7 +2958,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -3018,7 +3018,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -3240,8 +3240,8 @@
       <xdr:rowOff>90280</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3084446" cy="957469"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -3319,7 +3319,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -3403,7 +3403,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -3531,7 +3531,7 @@
                                         <a:schemeClr val="tx1"/>
                                       </a:solidFill>
                                       <a:effectLst/>
-                                      <a:latin typeface="+mn-lt"/>
+                                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                       <a:ea typeface="+mn-ea"/>
                                       <a:cs typeface="+mn-cs"/>
                                     </a:rPr>
@@ -4010,7 +4010,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -4413,8 +4413,8 @@
       <xdr:rowOff>43011</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1714499" cy="486514"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -4475,7 +4475,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -4546,7 +4546,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4638,7 +4638,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -4662,7 +4662,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -4865,8 +4865,8 @@
       <xdr:rowOff>80282</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2492087" cy="472168"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -4925,7 +4925,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -4998,7 +4998,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -5090,7 +5090,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -5348,7 +5348,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -13667,8 +13667,8 @@
       <xdr:rowOff>17367</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2659297" cy="778250"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26"/>
@@ -14290,7 +14290,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="27" name="TextBox 26"/>
@@ -25528,8 +25528,8 @@
       <xdr:rowOff>58489</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5396405" cy="598408"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -25675,10 +25675,10 @@
                                   </a:solidFill>
                                   <a:effectLst/>
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                                  <a:ea typeface="+mn-ea"/>
+                                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>ⅆ</m:t>
+                                <m:t>𝜕</m:t>
                               </m:r>
                               <m:r>
                                 <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -25695,16 +25695,16 @@
                             </m:num>
                             <m:den>
                               <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:rPr lang="en-US" sz="1100" i="1">
                                   <a:solidFill>
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="+mn-lt"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>ⅆ</m:t>
+                                <m:t>𝜕</m:t>
                               </m:r>
                               <m:acc>
                                 <m:accPr>
@@ -26478,7 +26478,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -26563,10 +26563,10 @@
                   </a:solidFill>
                   <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ</a:t>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -26590,7 +26590,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>/(ⅆ</a:t>
+                <a:t>/(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -26598,7 +26610,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -26610,7 +26622,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -26650,7 +26662,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t> 𝑢(</a:t>
+                <a:t> 𝑢(𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -26658,11 +26682,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑑</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>))〗^2 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -26670,7 +26694,43 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(1/2 𝜋𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -26686,6 +26746,30 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
+                <a:t>^2∗𝑢(𝑑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> ̅</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
                 <a:t>))〗^2 </a:t>
               </a:r>
               <a:r>
@@ -26722,19 +26806,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〖(1/2 𝜋</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑑</a:t>
+                <a:t>〖(105</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -26742,115 +26814,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ̅</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>^2∗𝑢(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝑑</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> ̅</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>))〗^2 </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>105</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -27066,7 +27030,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -27082,7 +27046,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -28146,8 +28110,8 @@
       <xdr:rowOff>13010</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4154194" cy="354969"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -28806,7 +28770,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="13" name="TextBox 12"/>
@@ -29238,8 +29202,8 @@
       <xdr:rowOff>119429</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2738072" cy="327513"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -29298,11 +29262,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -29319,16 +29283,16 @@
                     </m:num>
                     <m:den>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="en-US" sz="1100" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -29513,7 +29477,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -29555,11 +29519,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -29583,7 +29547,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>/ⅆ</a:t>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -29660,8 +29636,8 @@
       <xdr:rowOff>84388</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2580718" cy="501765"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -29720,11 +29696,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -29741,16 +29717,16 @@
                     </m:num>
                     <m:den>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="en-US" sz="1100" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -29857,7 +29833,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -29899,11 +29875,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -29927,7 +29903,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>/ⅆ</a:t>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -30029,8 +30017,8 @@
       <xdr:rowOff>84386</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2419349" cy="472460"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -30089,11 +30077,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -30110,16 +30098,16 @@
                     </m:num>
                     <m:den>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="en-US" sz="1100" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -30274,7 +30262,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -30316,11 +30304,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -30344,7 +30332,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>/ⅆ</a:t>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -30439,7 +30439,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -30451,7 +30451,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -30490,8 +30490,8 @@
       <xdr:rowOff>50463</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4726625" cy="1939933"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -30643,11 +30643,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -30664,16 +30664,16 @@
                               </m:num>
                               <m:den>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1100" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -30813,11 +30813,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -30834,16 +30834,16 @@
                               </m:num>
                               <m:den>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1100" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -30983,11 +30983,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -31004,16 +31004,16 @@
                               </m:num>
                               <m:den>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1100" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
@@ -31944,7 +31944,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -31982,6 +31982,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -32030,11 +32031,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -32058,7 +32059,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>/ⅆ</a:t>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -32078,11 +32091,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -32106,7 +32119,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>/ⅆ</a:t>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -32126,11 +32151,11 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -32154,7 +32179,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>/ⅆ</a:t>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -32198,7 +32235,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32210,7 +32247,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32268,11 +32305,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2+〖(782</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〗^2+〖(782"</a:t>
+                <a:t>"</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" i="0">
@@ -32327,11 +32376,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〗^2+〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>〗^2+〖("</a:t>
+                <a:t>"</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" i="0">
@@ -32380,7 +32441,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32392,7 +32453,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32401,20 +32462,81 @@
               <a:endParaRPr lang="pl-PL" sz="1100"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>71.018312</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)〗^2+〖(22.68206)〗^2+〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
+                <a:t>"</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -32423,7 +32545,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>√(</a:t>
+                <a:t>1.54253</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -32431,55 +32553,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>71.018312</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)〗^2+〖(22.68206)〗^2+〖("</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1.54253</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32491,7 +32565,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32500,13 +32574,14 @@
               <a:endParaRPr lang="pl-PL" sz="1100"/>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32518,7 +32593,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32530,7 +32605,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32542,7 +32617,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32558,13 +32633,14 @@
               </a:endParaRPr>
             </a:p>
             <a:p>
+              <a:pPr/>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32576,7 +32652,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32588,7 +32664,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32600,7 +32676,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -32656,7 +32732,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -33930,8 +34006,8 @@
       <xdr:rowOff>32148</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4377480" cy="240322"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -34150,7 +34226,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -34384,11 +34460,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" i="1">
@@ -34405,16 +34481,16 @@
                     </m:num>
                     <m:den>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="en-US" sz="1100" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -34584,11 +34660,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ𝛿/</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛿/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -34600,7 +34700,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ⅆ𝑚</a:t>
+                <a:t>𝑚</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
@@ -34684,8 +34784,8 @@
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2276475" cy="249299"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -34746,11 +34846,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" i="1">
@@ -34767,16 +34867,16 @@
                     </m:num>
                     <m:den>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="en-US" sz="1100" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -35033,7 +35133,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -35077,11 +35177,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ𝛿/</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛿/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -35093,7 +35217,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ⅆ𝑉</a:t>
+                <a:t>𝑉</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
@@ -35440,11 +35564,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="en-US" sz="1100" i="1">
@@ -35461,16 +35585,16 @@
                               </m:num>
                               <m:den>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1100" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -35610,11 +35734,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="en-US" sz="1100" i="1">
@@ -35631,16 +35755,16 @@
                               </m:num>
                               <m:den>
                                 <m:r>
-                                  <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                  <a:rPr lang="en-US" sz="1100" i="1">
                                     <a:solidFill>
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                    <a:latin typeface="+mn-lt"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>ⅆ</m:t>
+                                  <m:t>𝜕</m:t>
                                 </m:r>
                                 <m:r>
                                   <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -36349,11 +36473,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ𝛿/</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛿/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -36365,7 +36513,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ⅆ𝑉</a:t>
+                <a:t>𝑉</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -36433,11 +36581,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ𝛿/</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛿/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -36449,7 +36621,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ⅆ𝑚</a:t>
+                <a:t>𝑚</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -36798,8 +36970,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="780470" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -36835,6 +37007,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -36905,7 +37078,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -36976,8 +37149,8 @@
       <xdr:rowOff>152309</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4037708" cy="265907"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -37013,7 +37186,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:r>
@@ -37184,7 +37356,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -37372,7 +37544,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1502078" cy="249235"/>
+    <xdr:ext cx="1529137" cy="249235"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -37382,8 +37554,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="381000" y="2343150"/>
-              <a:ext cx="1502078" cy="249235"/>
+              <a:off x="381000" y="2329962"/>
+              <a:ext cx="1529137" cy="249235"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -37435,11 +37607,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" i="1">
@@ -37456,16 +37628,16 @@
                     </m:num>
                     <m:den>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="en-US" sz="1100" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -37644,7 +37816,7 @@
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
-                    <m:t>-04</m:t>
+                    <m:t>−04</m:t>
                   </m:r>
                   <m:r>
                     <m:rPr>
@@ -37668,8 +37840,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="381000" y="2343150"/>
-              <a:ext cx="1502078" cy="249235"/>
+              <a:off x="381000" y="2329962"/>
+              <a:ext cx="1529137" cy="249235"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -37704,11 +37876,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ𝛿/</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛿/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -37720,7 +37916,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ⅆ𝑚</a:t>
+                <a:t>𝑚</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
@@ -37758,7 +37954,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"</a:t>
+                <a:t>"1425</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -37766,42 +37986,6 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1425</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="el-GR" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
@@ -37818,19 +38002,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>7.02E-04</a:t>
+                <a:t>"7.02E−04</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0">
@@ -37857,7 +38029,7 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2338717" cy="265970"/>
+    <xdr:ext cx="2238113" cy="265970"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -37867,8 +38039,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2228850" y="2343150"/>
-              <a:ext cx="2338717" cy="265970"/>
+              <a:off x="2229583" y="2329962"/>
+              <a:ext cx="2238113" cy="265970"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -37920,11 +38092,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" i="1">
@@ -37941,16 +38113,16 @@
                     </m:num>
                     <m:den>
                       <m:r>
-                        <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:rPr lang="en-US" sz="1100" i="1">
                           <a:solidFill>
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:latin typeface="+mn-lt"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>ⅆ</m:t>
+                        <m:t>𝜕</m:t>
                       </m:r>
                       <m:r>
                         <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -38231,11 +38403,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US"/>
-                <a:t> </a:t>
+                <a:t>  </a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -38250,8 +38418,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2228850" y="2343150"/>
-              <a:ext cx="2338717" cy="265970"/>
+              <a:off x="2229583" y="2329962"/>
+              <a:ext cx="2238113" cy="265970"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -38286,11 +38454,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ𝛿/</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛿/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -38302,7 +38494,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ⅆ𝑉</a:t>
+                <a:t>𝑉</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
@@ -38367,6 +38559,24 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>/</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -38376,7 +38586,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" /𝑉^2 </a:t>
+                <a:t>𝑉^2 </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
@@ -38419,7 +38629,7 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:rPr lang="en-US" sz="1100" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -38470,11 +38680,7 @@
               </a:r>
               <a:r>
                 <a:rPr lang="en-US"/>
-                <a:t> </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US"/>
-                <a:t> </a:t>
+                <a:t>  </a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -38491,7 +38697,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4848225" cy="721672"/>
+    <xdr:ext cx="4848225" cy="738728"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -38502,7 +38708,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="364881" y="3001107"/>
-              <a:ext cx="4848225" cy="721672"/>
+              <a:ext cx="4848225" cy="738728"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -38531,7 +38737,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a14:m>
                 <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:sSub>
@@ -38683,11 +38888,11 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="+mn-lt"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>ⅆ</m:t>
+                                <m:t>𝜕</m:t>
                               </m:r>
                               <m:r>
                                 <a:rPr lang="en-US" sz="1100" i="1">
@@ -38704,16 +38909,16 @@
                             </m:num>
                             <m:den>
                               <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:rPr lang="en-US" sz="1100" i="1">
                                   <a:solidFill>
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="+mn-lt"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>ⅆ</m:t>
+                                <m:t>𝜕</m:t>
                               </m:r>
                               <m:r>
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -38853,11 +39058,11 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="+mn-lt"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>ⅆ</m:t>
+                                <m:t>𝜕</m:t>
                               </m:r>
                               <m:r>
                                 <a:rPr lang="en-US" sz="1100" i="1">
@@ -38874,16 +39079,16 @@
                             </m:num>
                             <m:den>
                               <m:r>
-                                <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                                <a:rPr lang="en-US" sz="1100" i="1">
                                   <a:solidFill>
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                                  <a:latin typeface="+mn-lt"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>ⅆ</m:t>
+                                <m:t>𝜕</m:t>
                               </m:r>
                               <m:r>
                                 <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -39034,7 +39239,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-</m:t>
+                            <m:t>−</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -39079,7 +39284,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-06  </m:t>
+                            <m:t>−06  </m:t>
                           </m:r>
                           <m:r>
                             <a:rPr lang="en-US" sz="1100" b="0" i="1">
@@ -39091,19 +39296,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>∗75</m:t>
-                          </m:r>
-                          <m:r>
-                            <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                              <a:solidFill>
-                                <a:schemeClr val="tx1"/>
-                              </a:solidFill>
-                              <a:effectLst/>
-                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                              <a:ea typeface="+mn-ea"/>
-                              <a:cs typeface="+mn-cs"/>
-                            </a:rPr>
-                            <m:t>)</m:t>
+                            <m:t>∗75)</m:t>
                           </m:r>
                         </m:e>
                         <m:sup>
@@ -39203,7 +39396,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-04</m:t>
+                            <m:t>−04</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -39254,7 +39447,7 @@
                         <a:schemeClr val="tx1"/>
                       </a:solidFill>
                       <a:effectLst/>
-                      <a:latin typeface="+mn-lt"/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                       <a:ea typeface="+mn-ea"/>
                       <a:cs typeface="+mn-cs"/>
                     </a:rPr>
@@ -39269,7 +39462,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -39285,7 +39478,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -39298,7 +39491,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -39362,7 +39555,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-04</m:t>
+                            <m:t>−04</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -39377,7 +39570,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -39391,7 +39584,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -39405,7 +39598,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -39419,7 +39612,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -39432,7 +39625,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -39481,7 +39674,7 @@
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
-                            <m:t>-06</m:t>
+                            <m:t>−06</m:t>
                           </m:r>
                           <m:r>
                             <m:rPr>
@@ -39496,7 +39689,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -39510,7 +39703,7 @@
                                 <a:schemeClr val="tx1"/>
                               </a:solidFill>
                               <a:effectLst/>
-                              <a:latin typeface="+mn-lt"/>
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               <a:ea typeface="+mn-ea"/>
                               <a:cs typeface="+mn-cs"/>
                             </a:rPr>
@@ -39592,7 +39785,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>-08</m:t>
+                        <m:t>−08</m:t>
                       </m:r>
                       <m:r>
                         <m:rPr>
@@ -39650,7 +39843,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>-11</m:t>
+                        <m:t>−11</m:t>
                       </m:r>
                       <m:r>
                         <m:rPr>
@@ -39682,7 +39875,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -39733,7 +39926,7 @@
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>-08</m:t>
+                        <m:t>−08</m:t>
                       </m:r>
                       <m:r>
                         <m:rPr>
@@ -39775,7 +39968,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="364881" y="3001107"/>
-              <a:ext cx="4848225" cy="721672"/>
+              <a:ext cx="4848225" cy="738728"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -39804,7 +39997,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
@@ -39871,11 +40063,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ𝛿/</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛿/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -39887,7 +40103,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ⅆ𝑉</a:t>
+                <a:t>𝑉</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -39955,11 +40171,35 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>ⅆ𝛿/</a:t>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛿/</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝜕</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -39971,7 +40211,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>ⅆ𝑚</a:t>
+                <a:t>𝑚</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -40043,7 +40283,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>-</a:t>
+                <a:t>−</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -40055,10 +40295,22 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>4.05E-06</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" i="0">
+                <a:t>4.05E−06  </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" ∗75)〗^2+〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -40067,55 +40319,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>  </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" ∗75</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>)〗^2+〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>7.02E-04</a:t>
+                <a:t>"7.02E−04</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -40137,7 +40341,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>)〗^2 )</a:t>
+                <a:t>)〗^2 )=√(〖(</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -40149,7 +40353,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>=√(〖("</a:t>
+                <a:t>"</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
@@ -40173,7 +40377,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>3.04E-04</a:t>
+                <a:t>3.04E−04</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -40185,23 +40389,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2+〖(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" )〗^2+〖(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"4.07E-06</a:t>
+                <a:t>"4.07E−06</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -40213,47 +40417,23 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>" )〗^2 )=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" )〗^2 )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>9.22641E-08</a:t>
+                <a:t>"9.22641E−08</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
@@ -40275,13 +40455,19 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"1.65779E-11</a:t>
+                <a:t>"1.65779E−11</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -40291,10 +40477,10 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" )=</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                <a:t>)=√(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
@@ -40303,47 +40489,29 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>√(</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>"9.22806E-08</a:t>
+                <a:t>"9.22806E−08</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>" )</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>=0.003</a:t>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>)=0.003</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100"/>
@@ -40364,8 +40532,8 @@
       <xdr:rowOff>4396</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="780470" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -40401,6 +40569,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -40471,7 +40640,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -40542,8 +40711,8 @@
       <xdr:rowOff>21535</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="329453" cy="138952"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -40624,7 +40793,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -40701,8 +40870,8 @@
       <xdr:rowOff>7040</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381323" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -40825,7 +40994,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -40890,8 +41059,8 @@
       <xdr:rowOff>196298</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387670" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -41014,7 +41183,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -41103,8 +41272,8 @@
       <xdr:rowOff>189257</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381323" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -41227,7 +41396,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -41316,8 +41485,8 @@
       <xdr:rowOff>12010</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="329453" cy="138952"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -41398,7 +41567,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -41475,8 +41644,8 @@
       <xdr:rowOff>197540</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381323" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -41599,7 +41768,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -41664,8 +41833,8 @@
       <xdr:rowOff>5798</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387670" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -41788,7 +41957,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -41877,8 +42046,8 @@
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381323" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -42001,7 +42170,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -42350,7 +42519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -42369,39 +42538,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="103"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="99"/>
       <c r="I1" s="37"/>
-      <c r="J1" s="95"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="95"/>
-      <c r="N1" s="95"/>
-      <c r="O1" s="95"/>
-      <c r="P1" s="95"/>
-      <c r="Q1" s="95"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="114" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="97"/>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="99" t="s">
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -42410,16 +42579,16 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="98"/>
+      <c r="C3" s="114"/>
+      <c r="D3" s="116"/>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="99" t="s">
+      <c r="F3" s="117" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
       <c r="K3" s="22"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -42429,14 +42598,14 @@
       <c r="B4" s="39">
         <v>0.72</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="105"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="101"/>
       <c r="E4" s="13"/>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="100"/>
-      <c r="H4" s="109"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="105"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
@@ -42445,42 +42614,42 @@
       <c r="B5" s="20">
         <v>8.24</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="107"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="103"/>
       <c r="E5" s="13"/>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="94"/>
-      <c r="H5" s="111"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="107"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="42"/>
-      <c r="C6" s="112">
+      <c r="C6" s="108">
         <v>0.01</v>
       </c>
-      <c r="D6" s="113"/>
+      <c r="D6" s="109"/>
       <c r="E6" s="14"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="115"/>
-      <c r="H6" s="116"/>
+      <c r="F6" s="110"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="94" t="s">
+      <c r="B7" s="96"/>
+      <c r="C7" s="96"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
+      <c r="F7" s="95"/>
+      <c r="G7" s="95"/>
+      <c r="H7" s="95"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
@@ -42513,18 +42682,18 @@
       <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="94"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
+      <c r="F11" s="95"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="95"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
@@ -42543,10 +42712,10 @@
       <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="94"/>
-      <c r="B14" s="94"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -42583,18 +42752,18 @@
       <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94" t="s">
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="H18" s="94"/>
+      <c r="F18" s="95"/>
+      <c r="G18" s="95"/>
+      <c r="H18" s="95"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="15"/>
@@ -42627,8 +42796,8 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="94"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
@@ -42637,10 +42806,10 @@
       <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="94"/>
-      <c r="B23" s="94"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="94"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="15"/>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
@@ -42677,10 +42846,10 @@
       <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="94"/>
-      <c r="B27" s="94"/>
-      <c r="C27" s="94"/>
-      <c r="D27" s="94"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
@@ -42718,6 +42887,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="A7:D7"/>
@@ -42728,17 +42908,6 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:H6"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42764,40 +42933,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="128"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="123"/>
       <c r="G1" s="61"/>
       <c r="H1" s="61"/>
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="129"/>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="131"/>
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="126"/>
       <c r="G2" s="61"/>
       <c r="H2" s="61"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="114" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="97"/>
-      <c r="C3" s="99" t="s">
+      <c r="B3" s="115"/>
+      <c r="C3" s="117" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
@@ -42812,11 +42981,11 @@
       <c r="C4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="96" t="s">
+      <c r="D4" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="98"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="116"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -42829,11 +42998,11 @@
         <v>8.44</v>
       </c>
       <c r="C5" s="76"/>
-      <c r="D5" s="104" t="s">
+      <c r="D5" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="104"/>
-      <c r="F5" s="105"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="101"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
@@ -42846,11 +43015,11 @@
         <v>8.44</v>
       </c>
       <c r="C6" s="77"/>
-      <c r="D6" s="106" t="s">
+      <c r="D6" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -42865,11 +43034,11 @@
       <c r="C7" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="106" t="s">
+      <c r="D7" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="103"/>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
@@ -42882,11 +43051,11 @@
         <v>8.17</v>
       </c>
       <c r="C8" s="78"/>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="127" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="121"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
@@ -42898,12 +43067,12 @@
       <c r="B9" s="74">
         <v>8.01</v>
       </c>
-      <c r="C9" s="122" t="s">
+      <c r="C9" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="109"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="105"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
@@ -42918,11 +43087,11 @@
       <c r="C10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="96" t="s">
+      <c r="D10" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="97"/>
-      <c r="F10" s="98"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="116"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
@@ -42935,11 +43104,11 @@
         <v>8.02</v>
       </c>
       <c r="C11" s="76"/>
-      <c r="D11" s="104">
+      <c r="D11" s="100">
         <v>0.05</v>
       </c>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="101"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
@@ -42952,11 +43121,11 @@
         <v>8.02</v>
       </c>
       <c r="C12" s="85"/>
-      <c r="D12" s="123">
+      <c r="D12" s="130">
         <v>8.1669999999999998</v>
       </c>
-      <c r="E12" s="124"/>
-      <c r="F12" s="125"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
@@ -42971,11 +43140,11 @@
       <c r="C13" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="96">
+      <c r="D13" s="114">
         <v>10</v>
       </c>
-      <c r="E13" s="97"/>
-      <c r="F13" s="98"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="116"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
@@ -42987,10 +43156,10 @@
       <c r="B14" s="75">
         <v>8.41</v>
       </c>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="109"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="105"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
@@ -43010,14 +43179,14 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="117" t="s">
+      <c r="A16" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="118"/>
-      <c r="F16" s="119"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="120"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
@@ -43045,14 +43214,14 @@
       <c r="I18" s="15"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="117" t="s">
+      <c r="A19" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="118"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="119"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="120"/>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
@@ -43080,14 +43249,14 @@
       <c r="I21" s="15"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="117" t="s">
+      <c r="A22" s="118" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="118"/>
-      <c r="F22" s="119"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="120"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
@@ -43212,6 +43381,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D12:F12"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A1:F2"/>
@@ -43228,7 +43398,6 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43240,7 +43409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
@@ -43257,26 +43426,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="133" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="133"/>
-      <c r="C1" s="133"/>
-      <c r="D1" s="133"/>
-      <c r="E1" s="133"/>
-      <c r="F1" s="133"/>
-      <c r="G1" s="134"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="135"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="133"/>
-      <c r="C2" s="133"/>
-      <c r="D2" s="133"/>
-      <c r="E2" s="133"/>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -43590,29 +43759,29 @@
       <c r="G15" s="75"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="119" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="118"/>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="135" t="s">
+      <c r="B16" s="119"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="136" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="135"/>
-      <c r="G16" s="135"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="118"/>
-      <c r="C17" s="118"/>
-      <c r="D17" s="118"/>
-      <c r="E17" s="135" t="s">
+      <c r="B17" s="119"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="135"/>
+      <c r="F17" s="136"/>
       <c r="G17" s="54" t="s">
         <v>19</v>
       </c>
@@ -43622,8 +43791,8 @@
       <c r="B18" s="31"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="138"/>
       <c r="G18" s="79">
         <v>0.05</v>
       </c>
@@ -43633,22 +43802,22 @@
       <c r="B19" s="31"/>
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
-      <c r="E19" s="118" t="s">
+      <c r="E19" s="119" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
+      <c r="F19" s="119"/>
+      <c r="G19" s="119"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="33"/>
@@ -43660,12 +43829,12 @@
       <c r="G21" s="33"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="118"/>
-      <c r="C22" s="118"/>
-      <c r="D22" s="118"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="119"/>
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
       <c r="G22" s="33"/>
@@ -43693,11 +43862,11 @@
       <c r="B25" s="31"/>
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
-      <c r="E25" s="118" t="s">
+      <c r="E25" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
@@ -43718,12 +43887,12 @@
       <c r="G27" s="33"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="118" t="s">
+      <c r="A28" s="119" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="118"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="118"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="119"/>
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
       <c r="G28" s="33"/>
@@ -43751,11 +43920,11 @@
       <c r="B31" s="33"/>
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
-      <c r="E31" s="118" t="s">
+      <c r="E31" s="119" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="118"/>
-      <c r="G31" s="118"/>
+      <c r="F31" s="119"/>
+      <c r="G31" s="119"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
@@ -43767,33 +43936,33 @@
       <c r="G32" s="33"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="118" t="s">
+      <c r="A33" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="118"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="118"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="119"/>
       <c r="E33" s="53"/>
       <c r="F33" s="33"/>
       <c r="G33" s="33"/>
       <c r="H33" s="52"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="118" t="s">
+      <c r="A34" s="119" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="118"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="118"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="119"/>
+      <c r="D34" s="119"/>
       <c r="E34" s="53"/>
       <c r="F34" s="33"/>
       <c r="G34" s="33"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="118"/>
-      <c r="B35" s="118"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="118"/>
+      <c r="A35" s="119"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="119"/>
+      <c r="D35" s="119"/>
       <c r="E35" s="33"/>
       <c r="F35" s="33"/>
       <c r="G35" s="33"/>
@@ -43820,12 +43989,12 @@
       <c r="D38" s="33"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="118" t="s">
+      <c r="A39" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="118"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="118"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="119"/>
+      <c r="D39" s="119"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="31"/>
@@ -43873,12 +44042,12 @@
       <c r="G44" s="15"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="118" t="s">
+      <c r="A45" s="119" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="118"/>
-      <c r="C45" s="118"/>
-      <c r="D45" s="118"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="119"/>
+      <c r="D45" s="119"/>
       <c r="E45" s="15"/>
       <c r="F45" s="15"/>
       <c r="G45" s="15"/>
@@ -43955,6 +44124,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A2:G2"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A39:D39"/>
     <mergeCell ref="A22:D22"/>
@@ -43964,15 +44142,6 @@
     <mergeCell ref="E31:G31"/>
     <mergeCell ref="A28:D28"/>
     <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43996,28 +44165,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="138"/>
-      <c r="C1" s="138"/>
-      <c r="D1" s="138"/>
-      <c r="E1" s="138"/>
-      <c r="F1" s="138"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="140" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="140"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="80"/>
       <c r="D2" s="80"/>
       <c r="E2" s="80"/>
       <c r="F2" s="80"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
@@ -44048,10 +44217,10 @@
       <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="118"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="33"/>
       <c r="D7" s="33"/>
       <c r="E7" s="33"/>
@@ -44090,11 +44259,11 @@
       <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="119" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="118"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="119"/>
       <c r="D12" s="33"/>
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
@@ -44261,8 +44430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:D14"/>
+    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44288,10 +44457,10 @@
       <c r="G1" s="91"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="139" t="s">
+      <c r="A2" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="140"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
       <c r="E2" s="15"/>
@@ -44301,8 +44470,8 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="141"/>
-      <c r="B3" s="142"/>
+      <c r="A3" s="142"/>
+      <c r="B3" s="143"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15"/>
       <c r="E3" s="15"/>
@@ -44404,12 +44573,12 @@
       <c r="J10" s="15"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="119" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="118"/>
-      <c r="C11" s="118"/>
-      <c r="D11" s="118"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
       <c r="E11" s="53"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
@@ -44442,12 +44611,12 @@
       <c r="J13" s="15"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="118" t="s">
+      <c r="A14" s="119" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="118"/>
-      <c r="C14" s="118"/>
-      <c r="D14" s="118"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
       <c r="E14" s="53"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
@@ -44456,14 +44625,14 @@
       <c r="J14" s="15"/>
     </row>
     <row r="15" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="139" t="s">
+      <c r="A15" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="140"/>
-      <c r="C15" s="139" t="s">
+      <c r="B15" s="141"/>
+      <c r="C15" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="140"/>
+      <c r="D15" s="141"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -44471,10 +44640,10 @@
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="141"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="141"/>
-      <c r="D16" s="142"/>
+      <c r="A16" s="142"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="143"/>
       <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -44906,7 +45075,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -44919,16 +45088,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="114" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="37"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -44938,10 +45107,10 @@
       <c r="B2" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="144"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -44955,8 +45124,8 @@
       <c r="B3" s="59">
         <v>0.72</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
@@ -44970,8 +45139,8 @@
       <c r="B4" s="62">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -44985,8 +45154,8 @@
       <c r="B5" s="86">
         <v>7.04</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -45000,8 +45169,8 @@
       <c r="B6" s="92">
         <v>285</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
@@ -45009,16 +45178,16 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="118" t="s">
+      <c r="A7" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="118"/>
-      <c r="C7" s="118"/>
-      <c r="D7" s="118"/>
-      <c r="E7" s="118"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
+      <c r="B7" s="119"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
+      <c r="H7" s="119"/>
       <c r="J7" s="93"/>
       <c r="K7" s="93"/>
     </row>
@@ -45043,16 +45212,16 @@
       <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="95" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="94"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="95"/>
+      <c r="G10" s="95"/>
+      <c r="H10" s="95"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
@@ -45261,7 +45430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -45275,15 +45444,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="114" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
       <c r="H1" s="65"/>
       <c r="I1" s="65"/>
     </row>
@@ -45294,10 +45463,10 @@
       <c r="B2" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="143" t="s">
+      <c r="C2" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="144"/>
+      <c r="D2" s="145"/>
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
       <c r="G2" s="18"/>
@@ -45309,8 +45478,8 @@
       <c r="B3" s="15">
         <v>8.24</v>
       </c>
-      <c r="C3" s="143"/>
-      <c r="D3" s="144"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="145"/>
       <c r="E3" s="15"/>
       <c r="F3" s="15"/>
       <c r="G3" s="18"/>
@@ -45322,8 +45491,8 @@
       <c r="B4" s="16">
         <v>1425</v>
       </c>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
+      <c r="C4" s="144"/>
+      <c r="D4" s="145"/>
       <c r="E4" s="15"/>
       <c r="F4" s="15"/>
       <c r="G4" s="18"/>
@@ -45335,8 +45504,8 @@
       <c r="B5" s="16">
         <v>75</v>
       </c>
-      <c r="C5" s="143"/>
-      <c r="D5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="145"/>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="18"/>
@@ -45348,22 +45517,22 @@
       <c r="B6" s="16">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="146"/>
+      <c r="C6" s="146"/>
+      <c r="D6" s="147"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="18"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="147" t="s">
+      <c r="A7" s="148" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="148"/>
-      <c r="C7" s="148"/>
-      <c r="D7" s="148"/>
-      <c r="E7" s="148"/>
-      <c r="F7" s="148"/>
-      <c r="G7" s="149"/>
+      <c r="B7" s="149"/>
+      <c r="C7" s="149"/>
+      <c r="D7" s="149"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="150"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="32"/>
@@ -45393,15 +45562,15 @@
       <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="114" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="98"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="116"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
@@ -45505,7 +45674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -45521,14 +45690,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="151" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="152"/>
-      <c r="F1" s="162" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="161" t="s">
         <v>79</v>
       </c>
       <c r="G1" s="164" t="s">
@@ -45536,13 +45705,13 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="153"/>
-      <c r="B2" s="154"/>
-      <c r="C2" s="154"/>
-      <c r="D2" s="154"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="161"/>
-      <c r="G2" s="144"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="145"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -45560,8 +45729,8 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="161"/>
-      <c r="G3" s="144"/>
+      <c r="F3" s="162"/>
+      <c r="G3" s="145"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -45570,11 +45739,11 @@
       <c r="B4" s="2">
         <v>8.44</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="144"/>
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="162"/>
+      <c r="G4" s="145"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -45583,11 +45752,11 @@
       <c r="B5" s="3">
         <v>8.44</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="144"/>
+      <c r="C5" s="102"/>
+      <c r="D5" s="102"/>
+      <c r="E5" s="103"/>
+      <c r="F5" s="162"/>
+      <c r="G5" s="145"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -45596,11 +45765,11 @@
       <c r="B6" s="4">
         <v>8.0500000000000007</v>
       </c>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="144"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="162"/>
+      <c r="G6" s="145"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -45609,11 +45778,11 @@
       <c r="B7" s="4">
         <v>8.17</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="144"/>
+      <c r="C7" s="102"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="103"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="145"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -45622,11 +45791,11 @@
       <c r="B8" s="5">
         <v>8.01</v>
       </c>
-      <c r="C8" s="106"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="161"/>
-      <c r="G8" s="144"/>
+      <c r="C8" s="102"/>
+      <c r="D8" s="102"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="145"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -45635,11 +45804,11 @@
       <c r="B9" s="5">
         <v>8.06</v>
       </c>
-      <c r="C9" s="106"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="144"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="162"/>
+      <c r="G9" s="145"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -45648,11 +45817,11 @@
       <c r="B10" s="5">
         <v>8.02</v>
       </c>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="161"/>
-      <c r="G10" s="144"/>
+      <c r="C10" s="102"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="162"/>
+      <c r="G10" s="145"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -45661,11 +45830,11 @@
       <c r="B11" s="5">
         <v>8.02</v>
       </c>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="144"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="145"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
@@ -45674,11 +45843,11 @@
       <c r="B12" s="5">
         <v>8.0500000000000007</v>
       </c>
-      <c r="C12" s="106"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="144"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="162"/>
+      <c r="G12" s="145"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -45687,11 +45856,11 @@
       <c r="B13" s="4">
         <v>8.41</v>
       </c>
-      <c r="C13" s="106"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="144"/>
+      <c r="C13" s="102"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="145"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
@@ -45707,8 +45876,8 @@
       <c r="E14" s="8">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F14" s="161"/>
-      <c r="G14" s="144"/>
+      <c r="F14" s="162"/>
+      <c r="G14" s="145"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -45718,10 +45887,10 @@
       <c r="C15" s="7">
         <v>0</v>
       </c>
-      <c r="D15" s="156"/>
-      <c r="E15" s="157"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="144"/>
+      <c r="D15" s="157"/>
+      <c r="E15" s="158"/>
+      <c r="F15" s="162"/>
+      <c r="G15" s="145"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -45731,10 +45900,10 @@
       <c r="C16" s="7">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="D16" s="158"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="144"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="160"/>
+      <c r="F16" s="162"/>
+      <c r="G16" s="145"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -45747,31 +45916,31 @@
       <c r="D17" s="21">
         <v>7.04</v>
       </c>
-      <c r="E17" s="163">
+      <c r="E17" s="94">
         <v>6.5639E-5</v>
       </c>
-      <c r="F17" s="160"/>
-      <c r="G17" s="146"/>
+      <c r="F17" s="163"/>
+      <c r="G17" s="147"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="150" t="s">
+      <c r="A18" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="151"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="151"/>
-      <c r="G18" s="152"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="152"/>
+      <c r="D18" s="152"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="153"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="153"/>
-      <c r="B19" s="154"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="154"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="154"/>
-      <c r="G19" s="155"/>
+      <c r="A19" s="154"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="155"/>
+      <c r="D19" s="155"/>
+      <c r="E19" s="155"/>
+      <c r="F19" s="155"/>
+      <c r="G19" s="156"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
@@ -45809,9 +45978,9 @@
       <c r="D21" s="23">
         <v>15.18</v>
       </c>
-      <c r="E21" s="104"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="105"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="101"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -45826,9 +45995,9 @@
       <c r="D22" s="7">
         <v>15.75</v>
       </c>
-      <c r="E22" s="106"/>
-      <c r="F22" s="106"/>
-      <c r="G22" s="107"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="102"/>
+      <c r="G22" s="103"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -45843,9 +46012,9 @@
       <c r="D23" s="7">
         <v>15.8</v>
       </c>
-      <c r="E23" s="106"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="107"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="102"/>
+      <c r="G23" s="103"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -45860,9 +46029,9 @@
       <c r="D24" s="7">
         <v>15.85</v>
       </c>
-      <c r="E24" s="106"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="107"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="103"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -45877,9 +46046,9 @@
       <c r="D25" s="7">
         <v>15.8</v>
       </c>
-      <c r="E25" s="106"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="107"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="103"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -45894,9 +46063,9 @@
       <c r="D26" s="7">
         <v>16.100000000000001</v>
       </c>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="107"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -45911,9 +46080,9 @@
       <c r="D27" s="7">
         <v>16</v>
       </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="107"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -45928,9 +46097,9 @@
       <c r="D28" s="7">
         <v>16</v>
       </c>
-      <c r="E28" s="106"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="107"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -45945,9 +46114,9 @@
       <c r="D29" s="7">
         <v>16</v>
       </c>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="107"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="102"/>
+      <c r="G29" s="103"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -45962,9 +46131,9 @@
       <c r="D30" s="7">
         <v>16.100000000000001</v>
       </c>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="107"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -46004,8 +46173,8 @@
       <c r="E32" s="24">
         <v>0</v>
       </c>
-      <c r="F32" s="106"/>
-      <c r="G32" s="107"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -46021,8 +46190,8 @@
       <c r="E33" s="24">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="F33" s="106"/>
-      <c r="G33" s="107"/>
+      <c r="F33" s="102"/>
+      <c r="G33" s="103"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>

--- a/Fizyka_Sprawka/Lab1_Cw100/FinalPrinted - Repaired.xlsx
+++ b/Fizyka_Sprawka/Lab1_Cw100/FinalPrinted - Repaired.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="82">
   <si>
     <t>L.p.</t>
   </si>
@@ -308,14 +308,23 @@
   <si>
     <t>Tabela 2.3 Końcowe podsumowanie wartości dla kulki ←</t>
   </si>
+  <si>
+    <t>Uważam, że tulejka wykonana jest ze stopu arsenu.</t>
+  </si>
+  <si>
+    <t>Uważam, że kulka wykonana jest ze szkła zwykłego.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.0000000"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -990,17 +999,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1023,23 +1025,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1054,20 +1049,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1101,13 +1088,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -1134,7 +1116,25 @@
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1188,20 +1188,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1238,15 +1232,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1343,6 +1328,57 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -25528,8 +25564,8 @@
       <xdr:rowOff>58489</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5396405" cy="598408"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -25700,7 +25736,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -26478,7 +26514,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -29202,8 +29238,8 @@
       <xdr:rowOff>119429</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2738072" cy="327513"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -29262,7 +29298,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -29288,7 +29324,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -29477,7 +29513,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="19" name="TextBox 18"/>
@@ -29636,8 +29672,8 @@
       <xdr:rowOff>84388</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2580718" cy="501765"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -29696,7 +29732,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -29722,7 +29758,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -29833,7 +29869,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="25" name="TextBox 24"/>
@@ -30017,8 +30053,8 @@
       <xdr:rowOff>84386</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2419349" cy="472460"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -30077,7 +30113,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30103,7 +30139,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -30262,7 +30298,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="31" name="TextBox 30"/>
@@ -30490,8 +30526,8 @@
       <xdr:rowOff>50463</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4726625" cy="1939933"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -30643,7 +30679,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -30669,7 +30705,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -30813,7 +30849,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -30839,7 +30875,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -30983,7 +31019,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -31009,7 +31045,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -31944,7 +31980,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="32" name="TextBox 31"/>
@@ -34398,8 +34434,8 @@
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="781050" cy="249299"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -34460,23 +34496,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝜕</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝛿</m:t>
+                        <m:t>𝜕𝛿</m:t>
                       </m:r>
                     </m:num>
                     <m:den>
@@ -34486,7 +34510,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -34616,7 +34640,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -34784,8 +34808,8 @@
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2276475" cy="249299"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -34846,23 +34870,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝜕</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝛿</m:t>
+                        <m:t>𝜕𝛿</m:t>
                       </m:r>
                     </m:num>
                     <m:den>
@@ -34872,7 +34884,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -35133,7 +35145,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -35369,8 +35381,8 @@
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4229100" cy="762001"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -35564,23 +35576,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝜕</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>𝛿</m:t>
+                                  <m:t>𝜕𝛿</m:t>
                                 </m:r>
                               </m:num>
                               <m:den>
@@ -35590,7 +35590,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -35734,23 +35734,11 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
-                                    <a:ea typeface="+mn-ea"/>
-                                    <a:cs typeface="+mn-cs"/>
-                                  </a:rPr>
-                                  <m:t>𝜕</m:t>
-                                </m:r>
-                                <m:r>
-                                  <a:rPr lang="en-US" sz="1100" i="1">
-                                    <a:solidFill>
-                                      <a:schemeClr val="tx1"/>
-                                    </a:solidFill>
-                                    <a:effectLst/>
                                     <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
-                                  <m:t>𝛿</m:t>
+                                  <m:t>𝜕𝛿</m:t>
                                 </m:r>
                               </m:num>
                               <m:den>
@@ -35760,7 +35748,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -36368,7 +36356,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -37545,8 +37533,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1529137" cy="249235"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -37607,23 +37595,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝜕</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝛿</m:t>
+                        <m:t>𝜕𝛿</m:t>
                       </m:r>
                     </m:num>
                     <m:den>
@@ -37633,7 +37609,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -37832,7 +37808,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -38030,8 +38006,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2238113" cy="265970"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -38092,23 +38068,11 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
-                          <a:ea typeface="+mn-ea"/>
-                          <a:cs typeface="+mn-cs"/>
-                        </a:rPr>
-                        <m:t>𝜕</m:t>
-                      </m:r>
-                      <m:r>
-                        <a:rPr lang="en-US" sz="1100" i="1">
-                          <a:solidFill>
-                            <a:schemeClr val="tx1"/>
-                          </a:solidFill>
-                          <a:effectLst/>
                           <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
-                        <m:t>𝛿</m:t>
+                        <m:t>𝜕𝛿</m:t>
                       </m:r>
                     </m:num>
                     <m:den>
@@ -38118,7 +38082,7 @@
                             <a:schemeClr val="tx1"/>
                           </a:solidFill>
                           <a:effectLst/>
-                          <a:latin typeface="+mn-lt"/>
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           <a:ea typeface="+mn-ea"/>
                           <a:cs typeface="+mn-cs"/>
                         </a:rPr>
@@ -38410,7 +38374,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -38698,8 +38662,8 @@
       <xdr:rowOff>99645</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="4848225" cy="738728"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -38888,23 +38852,11 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝜕</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>𝛿</m:t>
+                                <m:t>𝜕𝛿</m:t>
                               </m:r>
                             </m:num>
                             <m:den>
@@ -38914,7 +38866,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -39058,23 +39010,11 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
-                                  <a:ea typeface="+mn-ea"/>
-                                  <a:cs typeface="+mn-cs"/>
-                                </a:rPr>
-                                <m:t>𝜕</m:t>
-                              </m:r>
-                              <m:r>
-                                <a:rPr lang="en-US" sz="1100" i="1">
-                                  <a:solidFill>
-                                    <a:schemeClr val="tx1"/>
-                                  </a:solidFill>
-                                  <a:effectLst/>
                                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
-                                <m:t>𝛿</m:t>
+                                <m:t>𝜕𝛿</m:t>
                               </m:r>
                             </m:num>
                             <m:den>
@@ -39084,7 +39024,7 @@
                                     <a:schemeClr val="tx1"/>
                                   </a:solidFill>
                                   <a:effectLst/>
-                                  <a:latin typeface="+mn-lt"/>
+                                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   <a:ea typeface="+mn-ea"/>
                                   <a:cs typeface="+mn-cs"/>
                                 </a:rPr>
@@ -39959,7 +39899,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -41271,9 +41211,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>189257</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="381323" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="312842" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -41281,8 +41221,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="41413" y="3046757"/>
-              <a:ext cx="381323" cy="172227"/>
+              <a:off x="41413" y="3180107"/>
+              <a:ext cx="312842" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -41316,49 +41256,18 @@
                     <m:jc m:val="centerGroup"/>
                   </m:oMathParaPr>
                   <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝑢</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
-                            <a:solidFill>
-                              <a:schemeClr val="tx1"/>
-                            </a:solidFill>
-                            <a:effectLst/>
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                            <a:ea typeface="+mn-ea"/>
-                            <a:cs typeface="+mn-cs"/>
-                          </a:rPr>
-                          <m:t>𝐶</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
                     <m:d>
                       <m:dPr>
                         <m:ctrlPr>
@@ -41396,7 +41305,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -41404,8 +41313,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="41413" y="3046757"/>
-              <a:ext cx="381323" cy="172227"/>
+              <a:off x="41413" y="3180107"/>
+              <a:ext cx="312842" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -41434,6 +41343,18 @@
             <a:p>
               <a:pPr/>
               <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -41443,31 +41364,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>𝑢_</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>𝐶</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t> (𝑥)</a:t>
+                <a:t>(𝑥)</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -41481,7 +41378,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>12010</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="329453" cy="138952"/>
@@ -41640,7 +41537,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>33130</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>197540</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="381323" cy="172227"/>
@@ -41829,7 +41726,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>24848</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>5798</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="387670" cy="172227"/>
@@ -42042,12 +41939,12 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>31888</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="381323" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="312842" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -42055,8 +41952,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="31888" y="6285257"/>
-              <a:ext cx="381323" cy="172227"/>
+              <a:off x="31888" y="6543260"/>
+              <a:ext cx="312842" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -42079,6 +41976,176 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝑢</m:t>
+                    </m:r>
+                    <m:d>
+                      <m:dPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:dPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="+mn-ea"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>𝑥</m:t>
+                        </m:r>
+                      </m:e>
+                    </m:d>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="31888" y="6543260"/>
+              <a:ext cx="312842" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑢</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>(𝑥)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>521803</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1350065" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4182716" y="6750327"/>
+              <a:ext cx="1350065" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -42162,6 +42229,18 @@
                         </m:r>
                       </m:e>
                     </m:d>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>↓</m:t>
+                    </m:r>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -42170,16 +42249,16 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvPr id="10" name="TextBox 9"/>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="31888" y="6285257"/>
-              <a:ext cx="381323" cy="172227"/>
+              <a:off x="4182716" y="6750327"/>
+              <a:ext cx="1350065" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -42201,7 +42280,7 @@
             </a:fontRef>
           </xdr:style>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
               <a:spAutoFit/>
             </a:bodyPr>
             <a:lstStyle/>
@@ -42242,6 +42321,324 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
                 <a:t> (𝑥)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>↓</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>157369</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1350065" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5010978" y="6551543"/>
+              <a:ext cx="1350065" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>↑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝛿</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="TextBox 10"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5010978" y="6551543"/>
+              <a:ext cx="1350065" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>↑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛿</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273327</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>49695</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1350065" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2617305" y="2824369"/>
+              <a:ext cx="1350065" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>↑</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:rPr>
+                      <m:t>𝛿</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="TextBox 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2617305" y="2824369"/>
+              <a:ext cx="1350065" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>↑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝛿</a:t>
               </a:r>
               <a:endParaRPr lang="en-US" sz="1100"/>
             </a:p>
@@ -42519,8 +42916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42538,39 +42935,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114" t="s">
+      <c r="A2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="115"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="117" t="s">
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -42579,325 +42976,314 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="114"/>
-      <c r="D3" s="116"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="87"/>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="117"/>
-      <c r="H3" s="117"/>
-      <c r="K3" s="22"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="153">
         <v>0.72</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="104" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="96"/>
-      <c r="H4" s="105"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="98"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="154">
         <v>8.24</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="103"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="106" t="s">
+      <c r="C5" s="95"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="99" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="95"/>
-      <c r="H5" s="107"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="108">
+      <c r="B6" s="35"/>
+      <c r="C6" s="101">
         <v>0.01</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="110"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="112"/>
+      <c r="D6" s="102"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="105"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="95" t="s">
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="83" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
+      <c r="A10" s="56"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="95" t="s">
+      <c r="A11" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95" t="s">
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="95"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="95"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="66"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="95" t="s">
+      <c r="A18" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95" t="s">
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="95"/>
-      <c r="G18" s="95"/>
-      <c r="H18" s="95"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="83"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="95"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="83"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="95"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="A27" s="83"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="J1:Q1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E18:H18"/>
     <mergeCell ref="A7:D7"/>
@@ -42908,6 +43294,17 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="F6:H6"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -42919,8 +43316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42933,454 +43330,455 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="112" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="124"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="15"/>
+      <c r="A2" s="115"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="114" t="s">
+      <c r="A3" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="115"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="86"/>
+      <c r="C3" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="117"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="117"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="114" t="s">
+      <c r="D4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="115"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="72">
+      <c r="A5" s="61">
         <v>1</v>
       </c>
-      <c r="B5" s="73">
+      <c r="B5" s="167">
         <v>8.44</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="100" t="s">
+      <c r="C5" s="63"/>
+      <c r="D5" s="93" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="100"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="168">
         <v>8.44</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="102" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="102"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="169">
         <v>8.0500000000000007</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="102" t="s">
+      <c r="D7" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="102"/>
-      <c r="F7" s="103"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="169">
         <v>8.17</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="127" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="118" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="E8" s="118"/>
+      <c r="F8" s="119"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="74">
+      <c r="B9" s="170">
         <v>8.01</v>
       </c>
-      <c r="C9" s="129" t="s">
+      <c r="C9" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="105"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="74">
+      <c r="B10" s="170">
         <v>8.06</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="114" t="s">
+      <c r="D10" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="115"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="74">
+      <c r="B11" s="170">
         <v>8.02</v>
       </c>
-      <c r="C11" s="76"/>
-      <c r="D11" s="100">
+      <c r="C11" s="63"/>
+      <c r="D11" s="93">
         <v>0.05</v>
       </c>
-      <c r="E11" s="100"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="74">
+      <c r="B12" s="170">
         <v>8.02</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="130">
+      <c r="C12" s="72"/>
+      <c r="D12" s="106">
         <v>8.1669999999999998</v>
       </c>
-      <c r="E12" s="131"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="170">
         <v>8.0500000000000007</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="114">
+      <c r="D13" s="85">
         <v>10</v>
       </c>
-      <c r="E13" s="115"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
+      <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="75">
+      <c r="B14" s="171">
         <v>8.41</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="71"/>
-      <c r="B15" s="70">
+      <c r="A15" s="60"/>
+      <c r="B15" s="172">
         <f>AVERAGE(B5:B14)</f>
         <v>8.166999999999998</v>
       </c>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="118" t="s">
+      <c r="A16" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="A17" s="24"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="A18" s="24"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="118" t="s">
+      <c r="A19" s="109" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="119"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="B19" s="110"/>
+      <c r="C19" s="110"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="110"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="A21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="118" t="s">
+      <c r="A22" s="109" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="32"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="69"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
     </row>
     <row r="33" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
     </row>
     <row r="34" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
     </row>
     <row r="35" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
     </row>
     <row r="36" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
     </row>
     <row r="37" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
     </row>
     <row r="38" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="A22:F22"/>
     <mergeCell ref="A19:F19"/>
@@ -43397,7 +43795,6 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="D11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43409,14 +43806,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.7109375" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
@@ -43426,26 +43823,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="134"/>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="135"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="123"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="121" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="122"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -43455,33 +43852,33 @@
         <v>7</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="43"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="43"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="173">
         <v>34.15</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="39">
         <f>POWER(B4-34.17,2)</f>
         <v>4.0000000000012508E-4</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="177">
         <v>12</v>
       </c>
-      <c r="E4" s="47">
+      <c r="E4" s="38">
         <f>POWER(D4-D14,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="177">
         <v>15.18</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="40">
         <f>POWER(F4-F14,2)</f>
         <v>0.45968400000000109</v>
       </c>
@@ -43490,24 +43887,24 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="174">
         <v>34</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="3">
         <f>POWER(B5-34.17,2)</f>
         <v>2.8900000000000581E-2</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="178">
         <v>11.95</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="19">
         <f>POWER(D5-D14,2)</f>
         <v>7.0225000000000301E-2</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="166">
         <v>15.75</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <f>POWER(F5-F14,2)</f>
         <v>1.1664000000000117E-2</v>
       </c>
@@ -43516,24 +43913,24 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="175">
         <v>34.1</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <f>POWER(B6-34.17,2)</f>
         <v>4.9000000000000397E-3</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="179">
         <v>12</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <f>POWER(D6-D14,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="166">
         <v>15.8</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <f>POWER(F6-F14,2)</f>
         <v>3.3639999999999803E-3</v>
       </c>
@@ -43542,24 +43939,24 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="45">
+      <c r="B7" s="175">
         <v>34.1</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <f t="shared" ref="C7:C13" si="0">POWER(B7-34.17,2)</f>
         <v>4.9000000000000397E-3</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="178">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="3">
         <f>POWER(D7-D14,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="166">
         <v>15.85</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="41">
         <f>POWER(F7-F14,2)</f>
         <v>6.4000000000014322E-5</v>
       </c>
@@ -43568,24 +43965,24 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="45">
+      <c r="B8" s="175">
         <v>34.1</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>4.9000000000000397E-3</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="178">
         <v>12</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <f>POWER(D8-D14,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="166">
         <v>15.8</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <f>POWER(F8-F14,2)</f>
         <v>3.3639999999999803E-3</v>
       </c>
@@ -43594,24 +43991,24 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="45">
+      <c r="B9" s="175">
         <v>34.450000000000003</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>7.8400000000000636E-2</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="178">
         <v>12.75</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="19">
         <f>POWER(D9-D14,2)</f>
         <v>0.28622500000000017</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="166">
         <v>16.100000000000001</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <f>POWER(F9-F14,2)</f>
         <v>5.8564000000000428E-2</v>
       </c>
@@ -43620,24 +44017,24 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="45">
+      <c r="B10" s="175">
         <v>34.200000000000003</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>9.0000000000006817E-4</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="178">
         <v>12.9</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="19">
         <f>POWER(D10-D14,2)</f>
         <v>0.46922500000000067</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="166">
         <v>16</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <f>POWER(F10-F14,2)</f>
         <v>2.0163999999999845E-2</v>
       </c>
@@ -43646,24 +44043,24 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="45">
+      <c r="B11" s="175">
         <v>34.200000000000003</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>9.0000000000006817E-4</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="178">
         <v>11.8</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="19">
         <f>POWER(D11-D14,2)</f>
         <v>0.1722249999999993</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="166">
         <v>16</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <f>POWER(F11-F14,2)</f>
         <v>2.0163999999999845E-2</v>
       </c>
@@ -43672,24 +44069,24 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="45">
+      <c r="B12" s="175">
         <v>34.4</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>5.2899999999998559E-2</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="178">
         <v>11.8</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="19">
         <f>POWER(D12-D14,2)</f>
         <v>0.1722249999999993</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="166">
         <v>16</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <f>POWER(F12-F14,2)</f>
         <v>2.0163999999999845E-2</v>
       </c>
@@ -43698,432 +44095,441 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="46">
+      <c r="B13" s="176">
         <v>34</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>2.8900000000000581E-2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="166">
         <v>12.95</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="4">
         <f>POWER(D13-D14,2)</f>
         <v>0.54022499999999918</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="166">
         <v>16.100000000000001</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <f>POWER(F13-F14,2)</f>
         <v>5.8564000000000428E-2</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="46">
+      <c r="B14" s="176">
         <f>AVERAGE(B4:B13)</f>
         <v>34.169999999999995</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7">
+      <c r="C14" s="4"/>
+      <c r="D14" s="166">
         <f>AVERAGE(D4:D13)</f>
         <v>12.215</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7">
+      <c r="E14" s="4"/>
+      <c r="F14" s="166">
         <f>AVERAGE(F4:F13)</f>
         <v>15.858000000000001</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="G14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="11">
+      <c r="B15" s="35"/>
+      <c r="C15" s="8">
         <f>SUM(C4:C13)</f>
         <v>0.20600000000000074</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="8">
         <f>SUM(E4:E13)</f>
         <v>1.8952499999999985</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11">
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
         <f>SUM(G4:G13)</f>
         <v>0.65576000000000156</v>
       </c>
-      <c r="G15" s="75"/>
+      <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="119" t="s">
+      <c r="A16" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="136" t="s">
+      <c r="B16" s="110"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="136"/>
-      <c r="G16" s="136"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="119" t="s">
+      <c r="A17" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="136" t="s">
+      <c r="B17" s="110"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="136"/>
-      <c r="G17" s="54" t="s">
+      <c r="F17" s="124"/>
+      <c r="G17" s="44" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="137"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="79">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="66">
         <v>0.05</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="119" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="110" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="119"/>
-      <c r="G19" s="119"/>
+      <c r="F19" s="110"/>
+      <c r="G19" s="110"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="119" t="s">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="119"/>
-      <c r="G20" s="119"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="33"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="119" t="s">
+      <c r="A22" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="119"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="119"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="33"/>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="31"/>
-      <c r="G23" s="33"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="119" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="119"/>
-      <c r="G25" s="119"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="33"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="27"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="33"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="119" t="s">
+      <c r="A28" s="110" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="119"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="119"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="33"/>
+      <c r="B28" s="110"/>
+      <c r="C28" s="110"/>
+      <c r="D28" s="110"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="27"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="33"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="119" t="s">
+      <c r="A31" s="43"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="110" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="119"/>
-      <c r="G31" s="119"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="119" t="s">
+      <c r="A33" s="110" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="119"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="119"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="52"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="119" t="s">
+      <c r="A34" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="119"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="33"/>
-      <c r="G34" s="33"/>
+      <c r="B34" s="110"/>
+      <c r="C34" s="110"/>
+      <c r="D34" s="110"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="119"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="119"/>
-      <c r="D35" s="119"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
+      <c r="A35" s="110"/>
+      <c r="B35" s="110"/>
+      <c r="C35" s="110"/>
+      <c r="D35" s="110"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="25"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="31"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="119" t="s">
+      <c r="A39" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="119"/>
-      <c r="C39" s="119"/>
-      <c r="D39" s="119"/>
+      <c r="B39" s="110"/>
+      <c r="C39" s="110"/>
+      <c r="D39" s="110"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="31"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="53"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="31"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="31"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="33"/>
-      <c r="D44" s="33"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="119" t="s">
+      <c r="A45" s="110" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="119"/>
-      <c r="C45" s="119"/>
-      <c r="D45" s="119"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="33"/>
-      <c r="C48" s="33"/>
-      <c r="D48" s="33"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="33"/>
-      <c r="D49" s="33"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A33:D33"/>
     <mergeCell ref="E19:G19"/>
     <mergeCell ref="E20:G20"/>
     <mergeCell ref="A16:D16"/>
@@ -44133,15 +44539,6 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A33:D33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -44153,43 +44550,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" style="15" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="15" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="15"/>
+    <col min="1" max="1" width="14" style="12" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="12" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="127" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="139"/>
-      <c r="C1" s="139"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="128" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="142"/>
-      <c r="B3" s="143"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="48" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -44197,221 +44594,221 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="81">
+      <c r="A5" s="61"/>
+      <c r="B5" s="68">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="82"/>
-      <c r="B6" s="83">
+      <c r="A6" s="69"/>
+      <c r="B6" s="70">
         <v>8.1669999999999998</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="119" t="s">
+      <c r="A12" s="110" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="119"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="110"/>
+      <c r="C12" s="110"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="A17" s="27"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="27"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="A26" s="27"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="27"/>
+      <c r="B31" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -44430,7 +44827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -44446,209 +44843,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="128" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="141"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="142"/>
-      <c r="B3" s="143"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="A3" s="130"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="56">
+      <c r="B5" s="46">
         <v>34.17</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="56">
+      <c r="B6" s="46">
         <v>12.215</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="84">
+      <c r="B7" s="71">
         <v>15.858000000000001</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="33"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
-      <c r="B8" s="57">
+      <c r="B8" s="47">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="15"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="56">
+      <c r="B9" s="46">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="84">
+      <c r="B10" s="71">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="110" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="58"/>
+      <c r="G12" s="58"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="74"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="110" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="119"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="140" t="s">
+      <c r="A15" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="141"/>
-      <c r="C15" s="140" t="s">
+      <c r="B15" s="129"/>
+      <c r="C15" s="128" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="141"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="142"/>
-      <c r="B16" s="143"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
+      <c r="A16" s="130"/>
+      <c r="B16" s="131"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -44663,399 +45060,399 @@
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="18">
+      <c r="B18" s="15">
         <v>34.17</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="15">
         <v>68.34</v>
       </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="18">
+      <c r="B19" s="15">
         <v>3.6430000000000007</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="15">
         <v>-3.6430000000000007</v>
       </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="18">
+      <c r="B20" s="15">
         <v>13.271449000000006</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="15">
         <v>-248.96262000000007</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="16">
         <v>176.13135855960115</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C21" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="16">
         <v>61982.386157264438</v>
       </c>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="15"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="15"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="15"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="15"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="15"/>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
-      <c r="I31" s="15"/>
-      <c r="J31" s="15"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="15"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="15"/>
-      <c r="J33" s="15"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="15"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="15"/>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="15"/>
-      <c r="J38" s="15"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="15"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-      <c r="H40" s="15"/>
-      <c r="I40" s="15"/>
-      <c r="J40" s="15"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-      <c r="H41" s="15"/>
-      <c r="I41" s="15"/>
-      <c r="J41" s="15"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-      <c r="H43" s="15"/>
-      <c r="I43" s="15"/>
-      <c r="J43" s="15"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-      <c r="H45" s="15"/>
-      <c r="I45" s="15"/>
-      <c r="J45" s="15"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -45075,7 +45472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -45088,330 +45485,330 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="37"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="49">
         <v>0.72</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="B4" s="62">
+      <c r="B4" s="52">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="86">
+      <c r="B5" s="73">
         <v>7.04</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="92">
+      <c r="B6" s="79">
         <v>285</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="119" t="s">
+      <c r="A7" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="J7" s="93"/>
-      <c r="K7" s="93"/>
+      <c r="B7" s="110"/>
+      <c r="C7" s="110"/>
+      <c r="D7" s="110"/>
+      <c r="E7" s="110"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="95" t="s">
+      <c r="A10" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="95"/>
-      <c r="G10" s="95"/>
-      <c r="H10" s="95"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="A15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
+      <c r="A16" s="12"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="15"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="15"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -45430,7 +45827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -45444,218 +45841,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="144" t="s">
+      <c r="C2" s="132" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="145"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="18"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="12">
         <v>8.24</v>
       </c>
-      <c r="C3" s="144"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="18"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="13">
         <v>1425</v>
       </c>
-      <c r="C4" s="144"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="18"/>
+      <c r="C4" s="132"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="13">
         <v>75</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="18"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="13">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="C6" s="146"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="18"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="135"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="148" t="s">
+      <c r="A7" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="149"/>
-      <c r="C7" s="149"/>
-      <c r="D7" s="149"/>
-      <c r="E7" s="149"/>
-      <c r="F7" s="149"/>
-      <c r="G7" s="150"/>
+      <c r="B7" s="137"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="138"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="18"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="15"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="18"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="19"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="116"/>
+      <c r="B11" s="86"/>
+      <c r="C11" s="86"/>
+      <c r="D11" s="86"/>
+      <c r="E11" s="86"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="18"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="15"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="18"/>
-      <c r="I13" s="93"/>
-      <c r="K13" s="93"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="15"/>
+      <c r="I13" s="80"/>
+      <c r="K13" s="80"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18"/>
-      <c r="I14" s="93"/>
-      <c r="K14" s="93"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="15"/>
+      <c r="I14" s="80"/>
+      <c r="K14" s="80"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="18"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="15"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="18"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="18"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="15"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="18"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="18"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="15"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="14"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="19"/>
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -45672,10 +46069,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45684,34 +46081,34 @@
     <col min="2" max="2" width="7.140625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="151" t="s">
+      <c r="A1" s="139" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="152"/>
-      <c r="C1" s="152"/>
-      <c r="D1" s="152"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="161" t="s">
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="149" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="164" t="s">
+      <c r="G1" s="152" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="145"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="133"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -45729,499 +46126,523 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="162"/>
-      <c r="G3" s="145"/>
+      <c r="F3" s="150"/>
+      <c r="G3" s="133"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="158">
         <v>8.44</v>
       </c>
-      <c r="C4" s="100"/>
-      <c r="D4" s="100"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="145"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="133"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="159">
         <v>8.44</v>
       </c>
-      <c r="C5" s="102"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="103"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="145"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="133"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="161">
         <v>8.0500000000000007</v>
       </c>
-      <c r="C6" s="102"/>
-      <c r="D6" s="102"/>
-      <c r="E6" s="103"/>
-      <c r="F6" s="162"/>
-      <c r="G6" s="145"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="150"/>
+      <c r="G6" s="133"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="161">
         <v>8.17</v>
       </c>
-      <c r="C7" s="102"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="103"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="145"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="150"/>
+      <c r="G7" s="133"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="160">
         <v>8.01</v>
       </c>
-      <c r="C8" s="102"/>
-      <c r="D8" s="102"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="145"/>
+      <c r="C8" s="95"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="133"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="160">
         <v>8.06</v>
       </c>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="145"/>
+      <c r="C9" s="95"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="133"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="160">
         <v>8.02</v>
       </c>
-      <c r="C10" s="102"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="162"/>
-      <c r="G10" s="145"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="150"/>
+      <c r="G10" s="133"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="160">
         <v>8.02</v>
       </c>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="145"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="133"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="160">
         <v>8.0500000000000007</v>
       </c>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="162"/>
-      <c r="G12" s="145"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="150"/>
+      <c r="G12" s="133"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="161">
         <v>8.41</v>
       </c>
-      <c r="C13" s="102"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="162"/>
-      <c r="G13" s="145"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="133"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="4">
+      <c r="B14" s="161">
         <v>8.1669999999999998</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="155">
         <v>0.72</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D14" s="156">
         <v>285</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="157">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F14" s="162"/>
-      <c r="G14" s="145"/>
+      <c r="F14" s="150"/>
+      <c r="G14" s="133"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>0.06</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="157"/>
-      <c r="E15" s="158"/>
-      <c r="F15" s="162"/>
-      <c r="G15" s="145"/>
+      <c r="D15" s="145"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="150"/>
+      <c r="G15" s="133"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="4">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="D16" s="159"/>
-      <c r="E16" s="160"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="145"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="150"/>
+      <c r="G16" s="133"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="10">
+      <c r="B17" s="7">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="17">
         <v>7.04</v>
       </c>
-      <c r="E17" s="94">
+      <c r="E17" s="81">
         <v>6.5639E-5</v>
       </c>
-      <c r="F17" s="163"/>
-      <c r="G17" s="147"/>
+      <c r="F17" s="151"/>
+      <c r="G17" s="135"/>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="151" t="s">
+    <row r="18" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="86"/>
+      <c r="C18" s="86"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="87"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="152"/>
-      <c r="C18" s="152"/>
-      <c r="D18" s="152"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="153"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="154"/>
-      <c r="B19" s="155"/>
-      <c r="C19" s="155"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="155"/>
-      <c r="F19" s="155"/>
-      <c r="G19" s="156"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="141"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="142"/>
+      <c r="B20" s="143"/>
+      <c r="C20" s="143"/>
+      <c r="D20" s="143"/>
+      <c r="E20" s="143"/>
+      <c r="F20" s="143"/>
+      <c r="G20" s="144"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C21" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B22" s="158">
         <v>34.15</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C22" s="162">
         <v>12</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D22" s="165">
         <v>15.18</v>
       </c>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="101"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3">
-        <v>34</v>
-      </c>
-      <c r="C22" s="24">
-        <v>11.95</v>
-      </c>
-      <c r="D22" s="7">
-        <v>15.75</v>
-      </c>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="103"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="93"/>
+      <c r="G22" s="94"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
-      <c r="B23" s="5">
-        <v>34.1</v>
+      <c r="B23" s="159">
+        <v>34</v>
       </c>
-      <c r="C23" s="6">
-        <v>12</v>
+      <c r="C23" s="163">
+        <v>11.95</v>
       </c>
-      <c r="D23" s="7">
-        <v>15.8</v>
+      <c r="D23" s="166">
+        <v>15.75</v>
       </c>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="103"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="95"/>
+      <c r="G23" s="96"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="160">
         <v>34.1</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="155">
         <v>12</v>
       </c>
-      <c r="D24" s="7">
-        <v>15.85</v>
+      <c r="D24" s="166">
+        <v>15.8</v>
       </c>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="103"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="96"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="160">
         <v>34.1</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="163">
         <v>12</v>
       </c>
-      <c r="D25" s="7">
-        <v>15.8</v>
+      <c r="D25" s="166">
+        <v>15.85</v>
       </c>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="95"/>
+      <c r="G25" s="96"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
-      <c r="B26" s="5">
-        <v>34.450000000000003</v>
+      <c r="B26" s="160">
+        <v>34.1</v>
       </c>
-      <c r="C26" s="24">
-        <v>12.75</v>
+      <c r="C26" s="163">
+        <v>12</v>
       </c>
-      <c r="D26" s="7">
-        <v>16.100000000000001</v>
+      <c r="D26" s="166">
+        <v>15.8</v>
       </c>
-      <c r="E26" s="102"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="96"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
-      <c r="B27" s="5">
-        <v>34.200000000000003</v>
+      <c r="B27" s="160">
+        <v>34.450000000000003</v>
       </c>
-      <c r="C27" s="24">
-        <v>12.9</v>
+      <c r="C27" s="163">
+        <v>12.75</v>
       </c>
-      <c r="D27" s="7">
-        <v>16</v>
+      <c r="D27" s="166">
+        <v>16.100000000000001</v>
       </c>
-      <c r="E27" s="102"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="95"/>
+      <c r="G27" s="96"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28" s="160">
         <v>34.200000000000003</v>
       </c>
-      <c r="C28" s="24">
-        <v>11.8</v>
+      <c r="C28" s="163">
+        <v>12.9</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="166">
         <v>16</v>
       </c>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="103"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="96"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
-      <c r="B29" s="5">
-        <v>34.4</v>
+      <c r="B29" s="160">
+        <v>34.200000000000003</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="163">
         <v>11.8</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D29" s="166">
         <v>16</v>
       </c>
-      <c r="E29" s="102"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
+      <c r="E29" s="95"/>
+      <c r="F29" s="95"/>
+      <c r="G29" s="96"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
+        <v>9</v>
+      </c>
+      <c r="B30" s="160">
+        <v>34.4</v>
+      </c>
+      <c r="C30" s="163">
+        <v>11.8</v>
+      </c>
+      <c r="D30" s="166">
+        <v>16</v>
+      </c>
+      <c r="E30" s="95"/>
+      <c r="F30" s="95"/>
+      <c r="G30" s="96"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>10</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B31" s="161">
         <v>34</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="164">
         <v>12.95</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="166">
         <v>16.100000000000001</v>
       </c>
-      <c r="E30" s="102"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
+      <c r="E31" s="95"/>
+      <c r="F31" s="95"/>
+      <c r="G31" s="96"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="4">
-        <f>AVERAGE(B21:B30)</f>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="161">
+        <f>AVERAGE(B22:B31)</f>
         <v>34.169999999999995</v>
       </c>
-      <c r="C31" s="7">
-        <f>AVERAGE(C21:C30)</f>
+      <c r="C32" s="164">
+        <f>AVERAGE(C22:C31)</f>
         <v>12.215</v>
       </c>
-      <c r="D31" s="7">
-        <f>AVERAGE(D21:D30)</f>
+      <c r="D32" s="166">
+        <f>AVERAGE(D22:D31)</f>
         <v>15.858000000000001</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E32" s="155">
         <v>8.24</v>
       </c>
-      <c r="F31" s="6">
+      <c r="F32" s="3">
         <v>1425</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="5">
         <v>5.7999999999999996E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="25">
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="20">
         <v>0.06</v>
       </c>
-      <c r="C32" s="24">
+      <c r="C33" s="19">
         <v>0.86</v>
       </c>
-      <c r="D32" s="24">
+      <c r="D33" s="19">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="E32" s="24">
+      <c r="E33" s="19">
         <v>0</v>
       </c>
-      <c r="F32" s="102"/>
-      <c r="G32" s="103"/>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="25">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="C33" s="24">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D33" s="24">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="E33" s="24">
-        <v>5.7999999999999996E-3</v>
-      </c>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="96"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="26">
+      <c r="B34" s="20">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="C34" s="19">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D34" s="19">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E34" s="19">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="F34" s="95"/>
+      <c r="G34" s="96"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="21">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="C34" s="27">
+      <c r="C35" s="22">
         <v>9.0800000000000006E-2</v>
       </c>
-      <c r="D34" s="27">
+      <c r="D35" s="22">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E35" s="22">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F35" s="82">
         <v>75</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="9">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="85" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="86"/>
+      <c r="C36" s="86"/>
+      <c r="D36" s="86"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="86"/>
+      <c r="G36" s="87"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="F32:G33"/>
+  <mergeCells count="10">
+    <mergeCell ref="A36:G36"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="F33:G34"/>
     <mergeCell ref="C4:E13"/>
     <mergeCell ref="A1:E2"/>
     <mergeCell ref="D15:E16"/>
-    <mergeCell ref="A18:G19"/>
-    <mergeCell ref="E21:G30"/>
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="E22:G31"/>
     <mergeCell ref="F1:F17"/>
     <mergeCell ref="G1:G17"/>
   </mergeCells>

--- a/Fizyka_Sprawka/Lab1_Cw100/FinalPrinted - Repaired.xlsx
+++ b/Fizyka_Sprawka/Lab1_Cw100/FinalPrinted - Repaired.xlsx
@@ -322,9 +322,9 @@
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,##0.0000000000"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="171" formatCode="0.0000000"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1119,6 +1119,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1188,6 +1239,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1228,9 +1282,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1328,57 +1379,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -23857,9 +23857,9 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>31889</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4191725" cy="318036"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="4341766" cy="318036"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -23867,8 +23867,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1746389"/>
-              <a:ext cx="4191725" cy="318036"/>
+              <a:off x="0" y="1772665"/>
+              <a:ext cx="4341766" cy="318036"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -24241,6 +24241,18 @@
                       </m:sSupPr>
                       <m:e>
                         <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1"/>
+                            </a:solidFill>
+                            <a:effectLst/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            <a:cs typeface="+mn-cs"/>
+                          </a:rPr>
+                          <m:t>.00</m:t>
+                        </m:r>
+                        <m:r>
                           <a:rPr lang="pl-PL" sz="1100" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
@@ -24288,7 +24300,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -24296,8 +24308,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="1746389"/>
-              <a:ext cx="4191725" cy="318036"/>
+              <a:off x="0" y="1772665"/>
+              <a:ext cx="4341766" cy="318036"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -24377,7 +24389,31 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>≈285〖𝑚𝑚〗^3</a:t>
+                <a:t>≈285〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>.00</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑚𝑚〗^3</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="pl-PL" sz="1100" b="0" i="0">
@@ -37136,7 +37172,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>152309</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4037708" cy="265907"/>
+    <xdr:ext cx="4565994" cy="265907"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
@@ -37147,7 +37183,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="404996" y="1515117"/>
-              <a:ext cx="4037708" cy="265907"/>
+              <a:ext cx="4565994" cy="265907"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -37337,9 +37373,24 @@
                     </a:rPr>
                     <m:t>0.0058</m:t>
                   </m:r>
+                  <m:r>
+                    <a:rPr lang="en-US" sz="1100" i="1">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1"/>
+                      </a:solidFill>
+                      <a:effectLst/>
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:rPr>
+                    <m:t>≈</m:t>
+                  </m:r>
                 </m:oMath>
               </a14:m>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 0.006 </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -37353,7 +37404,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="404996" y="1515117"/>
-              <a:ext cx="4037708" cy="265907"/>
+              <a:ext cx="4565994" cy="265907"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -37380,7 +37431,6 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
-              <a:pPr/>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
@@ -37412,6 +37462,12 @@
                 <a:t> </a:t>
               </a:r>
               <a:r>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>" </a:t>
+              </a:r>
+              <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1"/>
@@ -37421,7 +37477,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>" /</a:t>
+                <a:t>/</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
@@ -37433,33 +37489,15 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>"</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:rPr>
-                <a:t>1425</a:t>
+                <a:t>"1425</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" i="0"/>
                 <a:t> </a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="el-GR" sz="1100" b="0" i="0" u="none" strike="noStrike">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:effectLst/>
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                <a:rPr lang="en-US" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>" </a:t>
               </a:r>
@@ -37517,7 +37555,22 @@
                 </a:rPr>
                 <a:t>0.0058</a:t>
               </a:r>
-              <a:endParaRPr lang="en-US" sz="1100"/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>≈</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t> 0.006 </a:t>
+              </a:r>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -41212,8 +41265,8 @@
       <xdr:rowOff>189257</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="312842" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -41305,7 +41358,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -41943,8 +41996,8 @@
       <xdr:rowOff>198782</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="312842" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -42036,7 +42089,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -42113,8 +42166,8 @@
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1350065" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -42249,7 +42302,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -42350,8 +42403,8 @@
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1350065" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -42412,7 +42465,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -42426,7 +42479,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="TextBox 10"/>
@@ -42498,9 +42551,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>273327</xdr:colOff>
+      <xdr:colOff>161269</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>49695</xdr:rowOff>
+      <xdr:rowOff>38489</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1350065" cy="172227"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -42512,7 +42565,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2617305" y="2824369"/>
+              <a:off x="2492093" y="2851165"/>
               <a:ext cx="1350065" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -42565,7 +42618,7 @@
                           <a:schemeClr val="tx1"/>
                         </a:solidFill>
                         <a:effectLst/>
-                        <a:latin typeface="+mn-lt"/>
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                         <a:ea typeface="+mn-ea"/>
                         <a:cs typeface="+mn-cs"/>
                       </a:rPr>
@@ -42587,7 +42640,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="2617305" y="2824369"/>
+              <a:off x="2492093" y="2851165"/>
               <a:ext cx="1350065" cy="172227"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -42634,7 +42687,7 @@
                     <a:schemeClr val="tx1"/>
                   </a:solidFill>
                   <a:effectLst/>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
@@ -42916,7 +42969,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -42935,39 +42988,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="118"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="119"/>
       <c r="I1" s="31"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="84"/>
-      <c r="M1" s="84"/>
-      <c r="N1" s="84"/>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="J1" s="111"/>
+      <c r="K1" s="111"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="111"/>
+      <c r="O1" s="111"/>
+      <c r="P1" s="111"/>
+      <c r="Q1" s="111"/>
     </row>
     <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88" t="s">
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="115" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -42976,77 +43029,77 @@
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="87"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="114"/>
       <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="88" t="s">
+      <c r="F3" s="115" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
       <c r="K3" s="18"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="153">
+      <c r="B4" s="83">
         <v>0.72</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="121"/>
       <c r="E4" s="10"/>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="89"/>
-      <c r="H4" s="98"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="125"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="154">
+      <c r="B5" s="84">
         <v>8.24</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="96"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="123"/>
       <c r="E5" s="10"/>
-      <c r="F5" s="99" t="s">
+      <c r="F5" s="126" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="83"/>
-      <c r="H5" s="100"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="127"/>
     </row>
     <row r="6" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="34" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="101">
+      <c r="C6" s="128">
         <v>0.01</v>
       </c>
-      <c r="D6" s="102"/>
+      <c r="D6" s="129"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="104"/>
-      <c r="H6" s="105"/>
+      <c r="F6" s="130"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="132"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="83" t="s">
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="110" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
+      <c r="F7" s="110"/>
+      <c r="G7" s="110"/>
+      <c r="H7" s="110"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="12"/>
@@ -43079,18 +43132,18 @@
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+      <c r="A11" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83" t="s">
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="110"/>
+      <c r="H11" s="110"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="12"/>
@@ -43109,10 +43162,10 @@
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="83"/>
+      <c r="A14" s="110"/>
+      <c r="B14" s="110"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="110"/>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -43149,18 +43202,18 @@
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83" t="s">
+      <c r="B18" s="110"/>
+      <c r="C18" s="110"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="83"/>
+      <c r="F18" s="110"/>
+      <c r="G18" s="110"/>
+      <c r="H18" s="110"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
@@ -43193,8 +43246,8 @@
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
+      <c r="A22" s="110"/>
+      <c r="B22" s="110"/>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
       <c r="E22" s="12"/>
@@ -43203,10 +43256,10 @@
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="83"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="110"/>
+      <c r="C23" s="110"/>
+      <c r="D23" s="110"/>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
@@ -43243,10 +43296,10 @@
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
+      <c r="A27" s="110"/>
+      <c r="B27" s="110"/>
+      <c r="C27" s="110"/>
+      <c r="D27" s="110"/>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
@@ -43330,40 +43383,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="140" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="114"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="142"/>
       <c r="G1" s="51"/>
       <c r="H1" s="51"/>
       <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="115"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="117"/>
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="145"/>
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="88" t="s">
+      <c r="B3" s="113"/>
+      <c r="C3" s="115" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12"/>
@@ -43378,11 +43431,11 @@
       <c r="C4" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="114"/>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
@@ -43391,15 +43444,15 @@
       <c r="A5" s="61">
         <v>1</v>
       </c>
-      <c r="B5" s="167">
+      <c r="B5" s="97">
         <v>8.44</v>
       </c>
       <c r="C5" s="63"/>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="93"/>
-      <c r="F5" s="94"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="121"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
@@ -43408,15 +43461,15 @@
       <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="168">
+      <c r="B6" s="98">
         <v>8.44</v>
       </c>
       <c r="C6" s="64"/>
-      <c r="D6" s="95" t="s">
+      <c r="D6" s="122" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="95"/>
-      <c r="F6" s="96"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
@@ -43425,17 +43478,17 @@
       <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="169">
+      <c r="B7" s="99">
         <v>8.0500000000000007</v>
       </c>
       <c r="C7" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="95" t="s">
+      <c r="D7" s="122" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="96"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="12"/>
       <c r="H7" s="12"/>
       <c r="I7" s="12"/>
@@ -43444,15 +43497,15 @@
       <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="169">
+      <c r="B8" s="99">
         <v>8.17</v>
       </c>
       <c r="C8" s="65"/>
-      <c r="D8" s="118" t="s">
+      <c r="D8" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="118"/>
-      <c r="F8" s="119"/>
+      <c r="E8" s="146"/>
+      <c r="F8" s="147"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -43461,15 +43514,15 @@
       <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="170">
+      <c r="B9" s="100">
         <v>8.01</v>
       </c>
-      <c r="C9" s="120" t="s">
+      <c r="C9" s="133" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="98"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="116"/>
+      <c r="F9" s="125"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -43478,17 +43531,17 @@
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="170">
+      <c r="B10" s="100">
         <v>8.06</v>
       </c>
       <c r="C10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="86"/>
-      <c r="F10" s="87"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="114"/>
       <c r="G10" s="12"/>
       <c r="H10" s="12"/>
       <c r="I10" s="12"/>
@@ -43497,15 +43550,15 @@
       <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="170">
+      <c r="B11" s="100">
         <v>8.02</v>
       </c>
       <c r="C11" s="63"/>
-      <c r="D11" s="93">
+      <c r="D11" s="120">
         <v>0.05</v>
       </c>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="121"/>
       <c r="G11" s="12"/>
       <c r="H11" s="12"/>
       <c r="I11" s="12"/>
@@ -43514,15 +43567,15 @@
       <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="170">
+      <c r="B12" s="100">
         <v>8.02</v>
       </c>
       <c r="C12" s="72"/>
-      <c r="D12" s="106">
+      <c r="D12" s="134">
         <v>8.1669999999999998</v>
       </c>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136"/>
       <c r="G12" s="12"/>
       <c r="H12" s="12"/>
       <c r="I12" s="12"/>
@@ -43531,17 +43584,17 @@
       <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="170">
+      <c r="B13" s="100">
         <v>8.0500000000000007</v>
       </c>
       <c r="C13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="85">
+      <c r="D13" s="112">
         <v>10</v>
       </c>
-      <c r="E13" s="86"/>
-      <c r="F13" s="87"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="114"/>
       <c r="G13" s="12"/>
       <c r="H13" s="12"/>
       <c r="I13" s="12"/>
@@ -43550,20 +43603,20 @@
       <c r="A14" s="7">
         <v>10</v>
       </c>
-      <c r="B14" s="171">
+      <c r="B14" s="101">
         <v>8.41</v>
       </c>
-      <c r="C14" s="89"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="89"/>
-      <c r="F14" s="98"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="125"/>
       <c r="G14" s="12"/>
       <c r="H14" s="12"/>
       <c r="I14" s="12"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="60"/>
-      <c r="B15" s="172">
+      <c r="B15" s="102">
         <f>AVERAGE(B5:B14)</f>
         <v>8.166999999999998</v>
       </c>
@@ -43576,14 +43629,14 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="109" t="s">
+      <c r="A16" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="111"/>
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="138"/>
+      <c r="F16" s="139"/>
       <c r="G16" s="12"/>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
@@ -43611,14 +43664,14 @@
       <c r="I18" s="12"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="109" t="s">
+      <c r="A19" s="137" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="110"/>
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
-      <c r="F19" s="111"/>
+      <c r="B19" s="138"/>
+      <c r="C19" s="138"/>
+      <c r="D19" s="138"/>
+      <c r="E19" s="138"/>
+      <c r="F19" s="139"/>
       <c r="G19" s="12"/>
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
@@ -43646,14 +43699,14 @@
       <c r="I21" s="12"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="137" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
-      <c r="E22" s="110"/>
-      <c r="F22" s="111"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
+      <c r="E22" s="138"/>
+      <c r="F22" s="139"/>
       <c r="G22" s="12"/>
       <c r="H22" s="12"/>
       <c r="I22" s="12"/>
@@ -43778,10 +43831,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A1:F2"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="D13:F13"/>
@@ -43795,6 +43844,10 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -43806,7 +43859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F14"/>
     </sheetView>
   </sheetViews>
@@ -43823,26 +43876,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="148" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="123"/>
+      <c r="B1" s="149"/>
+      <c r="C1" s="149"/>
+      <c r="D1" s="149"/>
+      <c r="E1" s="149"/>
+      <c r="F1" s="149"/>
+      <c r="G1" s="150"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="148" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="122"/>
-      <c r="D2" s="122"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="149"/>
+      <c r="D2" s="149"/>
+      <c r="E2" s="149"/>
+      <c r="F2" s="149"/>
+      <c r="G2" s="150"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -43861,21 +43914,21 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="173">
+      <c r="B4" s="103">
         <v>34.15</v>
       </c>
       <c r="C4" s="39">
         <f>POWER(B4-34.17,2)</f>
         <v>4.0000000000012508E-4</v>
       </c>
-      <c r="D4" s="177">
+      <c r="D4" s="107">
         <v>12</v>
       </c>
       <c r="E4" s="38">
         <f>POWER(D4-D14,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="F4" s="177">
+      <c r="F4" s="107">
         <v>15.18</v>
       </c>
       <c r="G4" s="40">
@@ -43887,21 +43940,21 @@
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="174">
+      <c r="B5" s="104">
         <v>34</v>
       </c>
       <c r="C5" s="3">
         <f>POWER(B5-34.17,2)</f>
         <v>2.8900000000000581E-2</v>
       </c>
-      <c r="D5" s="178">
+      <c r="D5" s="108">
         <v>11.95</v>
       </c>
       <c r="E5" s="19">
         <f>POWER(D5-D14,2)</f>
         <v>7.0225000000000301E-2</v>
       </c>
-      <c r="F5" s="166">
+      <c r="F5" s="96">
         <v>15.75</v>
       </c>
       <c r="G5" s="6">
@@ -43913,21 +43966,21 @@
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="175">
+      <c r="B6" s="105">
         <v>34.1</v>
       </c>
       <c r="C6" s="3">
         <f>POWER(B6-34.17,2)</f>
         <v>4.9000000000000397E-3</v>
       </c>
-      <c r="D6" s="179">
+      <c r="D6" s="109">
         <v>12</v>
       </c>
       <c r="E6" s="3">
         <f>POWER(D6-D14,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="F6" s="166">
+      <c r="F6" s="96">
         <v>15.8</v>
       </c>
       <c r="G6" s="6">
@@ -43939,21 +43992,21 @@
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="175">
+      <c r="B7" s="105">
         <v>34.1</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" ref="C7:C13" si="0">POWER(B7-34.17,2)</f>
         <v>4.9000000000000397E-3</v>
       </c>
-      <c r="D7" s="178">
+      <c r="D7" s="108">
         <v>12</v>
       </c>
       <c r="E7" s="3">
         <f>POWER(D7-D14,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="F7" s="166">
+      <c r="F7" s="96">
         <v>15.85</v>
       </c>
       <c r="G7" s="41">
@@ -43965,21 +44018,21 @@
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="175">
+      <c r="B8" s="105">
         <v>34.1</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
         <v>4.9000000000000397E-3</v>
       </c>
-      <c r="D8" s="178">
+      <c r="D8" s="108">
         <v>12</v>
       </c>
       <c r="E8" s="3">
         <f>POWER(D8-D14,2)</f>
         <v>4.622499999999994E-2</v>
       </c>
-      <c r="F8" s="166">
+      <c r="F8" s="96">
         <v>15.8</v>
       </c>
       <c r="G8" s="6">
@@ -43991,21 +44044,21 @@
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="175">
+      <c r="B9" s="105">
         <v>34.450000000000003</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
         <v>7.8400000000000636E-2</v>
       </c>
-      <c r="D9" s="178">
+      <c r="D9" s="108">
         <v>12.75</v>
       </c>
       <c r="E9" s="19">
         <f>POWER(D9-D14,2)</f>
         <v>0.28622500000000017</v>
       </c>
-      <c r="F9" s="166">
+      <c r="F9" s="96">
         <v>16.100000000000001</v>
       </c>
       <c r="G9" s="6">
@@ -44017,21 +44070,21 @@
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="175">
+      <c r="B10" s="105">
         <v>34.200000000000003</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
         <v>9.0000000000006817E-4</v>
       </c>
-      <c r="D10" s="178">
+      <c r="D10" s="108">
         <v>12.9</v>
       </c>
       <c r="E10" s="19">
         <f>POWER(D10-D14,2)</f>
         <v>0.46922500000000067</v>
       </c>
-      <c r="F10" s="166">
+      <c r="F10" s="96">
         <v>16</v>
       </c>
       <c r="G10" s="6">
@@ -44043,21 +44096,21 @@
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="175">
+      <c r="B11" s="105">
         <v>34.200000000000003</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
         <v>9.0000000000006817E-4</v>
       </c>
-      <c r="D11" s="178">
+      <c r="D11" s="108">
         <v>11.8</v>
       </c>
       <c r="E11" s="19">
         <f>POWER(D11-D14,2)</f>
         <v>0.1722249999999993</v>
       </c>
-      <c r="F11" s="166">
+      <c r="F11" s="96">
         <v>16</v>
       </c>
       <c r="G11" s="6">
@@ -44069,21 +44122,21 @@
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="175">
+      <c r="B12" s="105">
         <v>34.4</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
         <v>5.2899999999998559E-2</v>
       </c>
-      <c r="D12" s="178">
+      <c r="D12" s="108">
         <v>11.8</v>
       </c>
       <c r="E12" s="19">
         <f>POWER(D12-D14,2)</f>
         <v>0.1722249999999993</v>
       </c>
-      <c r="F12" s="166">
+      <c r="F12" s="96">
         <v>16</v>
       </c>
       <c r="G12" s="6">
@@ -44095,21 +44148,21 @@
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="176">
+      <c r="B13" s="106">
         <v>34</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
         <v>2.8900000000000581E-2</v>
       </c>
-      <c r="D13" s="166">
+      <c r="D13" s="96">
         <v>12.95</v>
       </c>
       <c r="E13" s="4">
         <f>POWER(D13-D14,2)</f>
         <v>0.54022499999999918</v>
       </c>
-      <c r="F13" s="166">
+      <c r="F13" s="96">
         <v>16.100000000000001</v>
       </c>
       <c r="G13" s="6">
@@ -44119,17 +44172,17 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="176">
+      <c r="B14" s="106">
         <f>AVERAGE(B4:B13)</f>
         <v>34.169999999999995</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="166">
+      <c r="D14" s="96">
         <f>AVERAGE(D4:D13)</f>
         <v>12.215</v>
       </c>
       <c r="E14" s="4"/>
-      <c r="F14" s="166">
+      <c r="F14" s="96">
         <f>AVERAGE(F4:F13)</f>
         <v>15.858000000000001</v>
       </c>
@@ -44156,29 +44209,29 @@
       <c r="G15" s="62"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="124" t="s">
+      <c r="B16" s="138"/>
+      <c r="C16" s="138"/>
+      <c r="D16" s="138"/>
+      <c r="E16" s="151" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="124"/>
-      <c r="G16" s="124"/>
+      <c r="F16" s="151"/>
+      <c r="G16" s="151"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="110"/>
-      <c r="D17" s="110"/>
-      <c r="E17" s="124" t="s">
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="151" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="124"/>
+      <c r="F17" s="151"/>
       <c r="G17" s="44" t="s">
         <v>19</v>
       </c>
@@ -44188,8 +44241,8 @@
       <c r="B18" s="25"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
-      <c r="E18" s="125"/>
-      <c r="F18" s="126"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
       <c r="G18" s="66">
         <v>0.05</v>
       </c>
@@ -44199,22 +44252,22 @@
       <c r="B19" s="25"/>
       <c r="C19" s="27"/>
       <c r="D19" s="27"/>
-      <c r="E19" s="110" t="s">
+      <c r="E19" s="138" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="110"/>
-      <c r="G19" s="110"/>
+      <c r="F19" s="138"/>
+      <c r="G19" s="138"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="27"/>
       <c r="D20" s="27"/>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
+      <c r="F20" s="138"/>
+      <c r="G20" s="138"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
@@ -44226,12 +44279,12 @@
       <c r="G21" s="27"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="110" t="s">
+      <c r="A22" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="110"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="110"/>
+      <c r="B22" s="138"/>
+      <c r="C22" s="138"/>
+      <c r="D22" s="138"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="27"/>
@@ -44259,11 +44312,11 @@
       <c r="B25" s="25"/>
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
-      <c r="E25" s="110" t="s">
+      <c r="E25" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="110"/>
-      <c r="G25" s="110"/>
+      <c r="F25" s="138"/>
+      <c r="G25" s="138"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="25"/>
@@ -44284,12 +44337,12 @@
       <c r="G27" s="27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="110" t="s">
+      <c r="A28" s="138" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="110"/>
-      <c r="C28" s="110"/>
-      <c r="D28" s="110"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="138"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="27"/>
@@ -44317,11 +44370,11 @@
       <c r="B31" s="27"/>
       <c r="C31" s="27"/>
       <c r="D31" s="27"/>
-      <c r="E31" s="110" t="s">
+      <c r="E31" s="138" t="s">
         <v>36</v>
       </c>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
+      <c r="F31" s="138"/>
+      <c r="G31" s="138"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="27"/>
@@ -44333,33 +44386,33 @@
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="138" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="110"/>
-      <c r="C33" s="110"/>
-      <c r="D33" s="110"/>
+      <c r="B33" s="138"/>
+      <c r="C33" s="138"/>
+      <c r="D33" s="138"/>
       <c r="E33" s="43"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="42"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="110"/>
-      <c r="C34" s="110"/>
-      <c r="D34" s="110"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="138"/>
+      <c r="D34" s="138"/>
       <c r="E34" s="43"/>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="110"/>
-      <c r="B35" s="110"/>
-      <c r="C35" s="110"/>
-      <c r="D35" s="110"/>
+      <c r="A35" s="138"/>
+      <c r="B35" s="138"/>
+      <c r="C35" s="138"/>
+      <c r="D35" s="138"/>
       <c r="E35" s="27"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
@@ -44386,12 +44439,12 @@
       <c r="D38" s="27"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="110" t="s">
+      <c r="A39" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="B39" s="110"/>
-      <c r="C39" s="110"/>
-      <c r="D39" s="110"/>
+      <c r="B39" s="138"/>
+      <c r="C39" s="138"/>
+      <c r="D39" s="138"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="25"/>
@@ -44439,12 +44492,12 @@
       <c r="G44" s="12"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="110" t="s">
+      <c r="A45" s="138" t="s">
         <v>33</v>
       </c>
-      <c r="B45" s="110"/>
-      <c r="C45" s="110"/>
-      <c r="D45" s="110"/>
+      <c r="B45" s="138"/>
+      <c r="C45" s="138"/>
+      <c r="D45" s="138"/>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
@@ -44550,7 +44603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
@@ -44562,28 +44615,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="127"/>
-      <c r="C1" s="127"/>
-      <c r="D1" s="127"/>
-      <c r="E1" s="127"/>
-      <c r="F1" s="127"/>
+      <c r="B1" s="154"/>
+      <c r="C1" s="154"/>
+      <c r="D1" s="154"/>
+      <c r="E1" s="154"/>
+      <c r="F1" s="154"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="155" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="156"/>
       <c r="C2" s="67"/>
       <c r="D2" s="67"/>
       <c r="E2" s="67"/>
       <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="48" t="s">
@@ -44614,10 +44667,10 @@
       <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="110"/>
+      <c r="B7" s="138"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -44656,11 +44709,11 @@
       <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="s">
+      <c r="A12" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
+      <c r="B12" s="138"/>
+      <c r="C12" s="138"/>
       <c r="D12" s="27"/>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
@@ -44827,7 +44880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J49"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -44854,10 +44907,10 @@
       <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="156"/>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -44867,8 +44920,8 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="130"/>
-      <c r="B3" s="131"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -44970,12 +45023,12 @@
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="138" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="110"/>
+      <c r="B11" s="138"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
       <c r="E11" s="43"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
@@ -45008,12 +45061,12 @@
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="110"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="110"/>
+      <c r="B14" s="138"/>
+      <c r="C14" s="138"/>
+      <c r="D14" s="138"/>
       <c r="E14" s="43"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
@@ -45022,14 +45075,14 @@
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="128" t="s">
+      <c r="A15" s="155" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="129"/>
-      <c r="C15" s="128" t="s">
+      <c r="B15" s="156"/>
+      <c r="C15" s="155" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="129"/>
+      <c r="D15" s="156"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
@@ -45037,10 +45090,10 @@
       <c r="I15" s="12"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="130"/>
-      <c r="B16" s="131"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131"/>
+      <c r="A16" s="157"/>
+      <c r="B16" s="158"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="158"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -45472,7 +45525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -45485,16 +45538,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="112" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="114"/>
       <c r="I1" s="31"/>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -45504,10 +45557,10 @@
       <c r="B2" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="159" t="s">
         <v>76</v>
       </c>
-      <c r="D2" s="133"/>
+      <c r="D2" s="160"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -45521,8 +45574,8 @@
       <c r="B3" s="49">
         <v>0.72</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="12"/>
@@ -45536,8 +45589,8 @@
       <c r="B4" s="52">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="133"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
@@ -45551,8 +45604,8 @@
       <c r="B5" s="73">
         <v>7.04</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="133"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
@@ -45566,8 +45619,8 @@
       <c r="B6" s="79">
         <v>285</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
@@ -45575,16 +45628,16 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="110" t="s">
+      <c r="A7" s="138" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="110"/>
-      <c r="E7" s="110"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
+      <c r="B7" s="138"/>
+      <c r="C7" s="138"/>
+      <c r="D7" s="138"/>
+      <c r="E7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="G7" s="138"/>
+      <c r="H7" s="138"/>
       <c r="J7" s="80"/>
       <c r="K7" s="80"/>
     </row>
@@ -45609,16 +45662,16 @@
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
+      <c r="A10" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
+      <c r="B10" s="110"/>
+      <c r="C10" s="110"/>
+      <c r="D10" s="110"/>
+      <c r="E10" s="110"/>
+      <c r="F10" s="110"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="110"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
@@ -45827,7 +45880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
@@ -45841,15 +45894,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="112" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="55"/>
       <c r="I1" s="55"/>
     </row>
@@ -45860,10 +45913,10 @@
       <c r="B2" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="133"/>
+      <c r="D2" s="160"/>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
       <c r="G2" s="15"/>
@@ -45875,8 +45928,8 @@
       <c r="B3" s="12">
         <v>8.24</v>
       </c>
-      <c r="C3" s="132"/>
-      <c r="D3" s="133"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="160"/>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
       <c r="G3" s="15"/>
@@ -45888,8 +45941,8 @@
       <c r="B4" s="13">
         <v>1425</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="133"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="160"/>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
       <c r="G4" s="15"/>
@@ -45901,8 +45954,8 @@
       <c r="B5" s="13">
         <v>75</v>
       </c>
-      <c r="C5" s="132"/>
-      <c r="D5" s="133"/>
+      <c r="C5" s="159"/>
+      <c r="D5" s="160"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="15"/>
@@ -45914,22 +45967,22 @@
       <c r="B6" s="13">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="135"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="162"/>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="138"/>
+      <c r="B7" s="164"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
+      <c r="E7" s="164"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="165"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
@@ -45959,15 +46012,15 @@
       <c r="G10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="112" t="s">
         <v>61</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="114"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
@@ -46072,7 +46125,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B14"/>
+      <selection activeCell="F33" sqref="F33:G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46087,28 +46140,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="139" t="s">
+      <c r="A1" s="166" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
-      <c r="D1" s="140"/>
-      <c r="E1" s="141"/>
-      <c r="F1" s="149" t="s">
+      <c r="B1" s="167"/>
+      <c r="C1" s="167"/>
+      <c r="D1" s="167"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="176" t="s">
         <v>79</v>
       </c>
-      <c r="G1" s="152" t="s">
+      <c r="G1" s="179" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="133"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="177"/>
+      <c r="G2" s="160"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -46126,155 +46179,155 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="150"/>
-      <c r="G3" s="133"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="160"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="158">
+      <c r="B4" s="88">
         <v>8.44</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="133"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="120"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="160"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
-      <c r="B5" s="159">
+      <c r="B5" s="89">
         <v>8.44</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="133"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="122"/>
+      <c r="E5" s="123"/>
+      <c r="F5" s="177"/>
+      <c r="G5" s="160"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B6" s="161">
+      <c r="B6" s="91">
         <v>8.0500000000000007</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="150"/>
-      <c r="G6" s="133"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="177"/>
+      <c r="G6" s="160"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="161">
+      <c r="B7" s="91">
         <v>8.17</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="150"/>
-      <c r="G7" s="133"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="122"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="177"/>
+      <c r="G7" s="160"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="160">
+      <c r="B8" s="90">
         <v>8.01</v>
       </c>
-      <c r="C8" s="95"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="133"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="122"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="177"/>
+      <c r="G8" s="160"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="160">
+      <c r="B9" s="90">
         <v>8.06</v>
       </c>
-      <c r="C9" s="95"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="150"/>
-      <c r="G9" s="133"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="177"/>
+      <c r="G9" s="160"/>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="160">
+      <c r="B10" s="90">
         <v>8.02</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="150"/>
-      <c r="G10" s="133"/>
+      <c r="C10" s="122"/>
+      <c r="D10" s="122"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="177"/>
+      <c r="G10" s="160"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="160">
+      <c r="B11" s="90">
         <v>8.02</v>
       </c>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="133"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="177"/>
+      <c r="G11" s="160"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="160">
+      <c r="B12" s="90">
         <v>8.0500000000000007</v>
       </c>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="133"/>
+      <c r="C12" s="122"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="123"/>
+      <c r="F12" s="177"/>
+      <c r="G12" s="160"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="161">
+      <c r="B13" s="91">
         <v>8.41</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="150"/>
-      <c r="G13" s="133"/>
+      <c r="C13" s="122"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="177"/>
+      <c r="G13" s="160"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="161">
+      <c r="B14" s="91">
         <v>8.1669999999999998</v>
       </c>
-      <c r="C14" s="155">
+      <c r="C14" s="85">
         <v>0.72</v>
       </c>
-      <c r="D14" s="156">
+      <c r="D14" s="86">
         <v>285</v>
       </c>
-      <c r="E14" s="157">
+      <c r="E14" s="87">
         <v>2.5000000000000001E-3</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="133"/>
+      <c r="F14" s="177"/>
+      <c r="G14" s="160"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -46284,10 +46337,10 @@
       <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="145"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="133"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="177"/>
+      <c r="G15" s="160"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -46297,10 +46350,10 @@
       <c r="C16" s="4">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="D16" s="147"/>
-      <c r="E16" s="148"/>
-      <c r="F16" s="150"/>
-      <c r="G16" s="133"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="177"/>
+      <c r="G16" s="160"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -46316,39 +46369,39 @@
       <c r="E17" s="81">
         <v>6.5639E-5</v>
       </c>
-      <c r="F17" s="151"/>
-      <c r="G17" s="135"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="162"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="112" t="s">
         <v>81</v>
       </c>
-      <c r="B18" s="86"/>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
+      <c r="B18" s="113"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="113"/>
+      <c r="G18" s="114"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="139" t="s">
+      <c r="A19" s="166" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="141"/>
+      <c r="B19" s="167"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="168"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="142"/>
-      <c r="B20" s="143"/>
-      <c r="C20" s="143"/>
-      <c r="D20" s="143"/>
-      <c r="E20" s="143"/>
-      <c r="F20" s="143"/>
-      <c r="G20" s="144"/>
+      <c r="A20" s="169"/>
+      <c r="B20" s="170"/>
+      <c r="C20" s="170"/>
+      <c r="D20" s="170"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="170"/>
+      <c r="G20" s="171"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -46377,194 +46430,194 @@
       <c r="A22" s="1">
         <v>1</v>
       </c>
-      <c r="B22" s="158">
+      <c r="B22" s="88">
         <v>34.15</v>
       </c>
-      <c r="C22" s="162">
+      <c r="C22" s="92">
         <v>12</v>
       </c>
-      <c r="D22" s="165">
+      <c r="D22" s="95">
         <v>15.18</v>
       </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="94"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="121"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
-      <c r="B23" s="159">
+      <c r="B23" s="89">
         <v>34</v>
       </c>
-      <c r="C23" s="163">
+      <c r="C23" s="93">
         <v>11.95</v>
       </c>
-      <c r="D23" s="166">
+      <c r="D23" s="96">
         <v>15.75</v>
       </c>
-      <c r="E23" s="95"/>
-      <c r="F23" s="95"/>
-      <c r="G23" s="96"/>
+      <c r="E23" s="122"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="123"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
-      <c r="B24" s="160">
+      <c r="B24" s="90">
         <v>34.1</v>
       </c>
-      <c r="C24" s="155">
+      <c r="C24" s="85">
         <v>12</v>
       </c>
-      <c r="D24" s="166">
+      <c r="D24" s="96">
         <v>15.8</v>
       </c>
-      <c r="E24" s="95"/>
-      <c r="F24" s="95"/>
-      <c r="G24" s="96"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="123"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4</v>
       </c>
-      <c r="B25" s="160">
+      <c r="B25" s="90">
         <v>34.1</v>
       </c>
-      <c r="C25" s="163">
+      <c r="C25" s="93">
         <v>12</v>
       </c>
-      <c r="D25" s="166">
+      <c r="D25" s="96">
         <v>15.85</v>
       </c>
-      <c r="E25" s="95"/>
-      <c r="F25" s="95"/>
-      <c r="G25" s="96"/>
+      <c r="E25" s="122"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="123"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>5</v>
       </c>
-      <c r="B26" s="160">
+      <c r="B26" s="90">
         <v>34.1</v>
       </c>
-      <c r="C26" s="163">
+      <c r="C26" s="93">
         <v>12</v>
       </c>
-      <c r="D26" s="166">
+      <c r="D26" s="96">
         <v>15.8</v>
       </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="95"/>
-      <c r="G26" s="96"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="123"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>6</v>
       </c>
-      <c r="B27" s="160">
+      <c r="B27" s="90">
         <v>34.450000000000003</v>
       </c>
-      <c r="C27" s="163">
+      <c r="C27" s="93">
         <v>12.75</v>
       </c>
-      <c r="D27" s="166">
+      <c r="D27" s="96">
         <v>16.100000000000001</v>
       </c>
-      <c r="E27" s="95"/>
-      <c r="F27" s="95"/>
-      <c r="G27" s="96"/>
+      <c r="E27" s="122"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="123"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>7</v>
       </c>
-      <c r="B28" s="160">
+      <c r="B28" s="90">
         <v>34.200000000000003</v>
       </c>
-      <c r="C28" s="163">
+      <c r="C28" s="93">
         <v>12.9</v>
       </c>
-      <c r="D28" s="166">
+      <c r="D28" s="96">
         <v>16</v>
       </c>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-      <c r="G28" s="96"/>
+      <c r="E28" s="122"/>
+      <c r="F28" s="122"/>
+      <c r="G28" s="123"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>8</v>
       </c>
-      <c r="B29" s="160">
+      <c r="B29" s="90">
         <v>34.200000000000003</v>
       </c>
-      <c r="C29" s="163">
+      <c r="C29" s="93">
         <v>11.8</v>
       </c>
-      <c r="D29" s="166">
+      <c r="D29" s="96">
         <v>16</v>
       </c>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-      <c r="G29" s="96"/>
+      <c r="E29" s="122"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="123"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>9</v>
       </c>
-      <c r="B30" s="160">
+      <c r="B30" s="90">
         <v>34.4</v>
       </c>
-      <c r="C30" s="163">
+      <c r="C30" s="93">
         <v>11.8</v>
       </c>
-      <c r="D30" s="166">
+      <c r="D30" s="96">
         <v>16</v>
       </c>
-      <c r="E30" s="95"/>
-      <c r="F30" s="95"/>
-      <c r="G30" s="96"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="123"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>10</v>
       </c>
-      <c r="B31" s="161">
+      <c r="B31" s="91">
         <v>34</v>
       </c>
-      <c r="C31" s="164">
+      <c r="C31" s="94">
         <v>12.95</v>
       </c>
-      <c r="D31" s="166">
+      <c r="D31" s="96">
         <v>16.100000000000001</v>
       </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="95"/>
-      <c r="G31" s="96"/>
+      <c r="E31" s="122"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="123"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="161">
+      <c r="B32" s="91">
         <f>AVERAGE(B22:B31)</f>
         <v>34.169999999999995</v>
       </c>
-      <c r="C32" s="164">
+      <c r="C32" s="94">
         <f>AVERAGE(C22:C31)</f>
         <v>12.215</v>
       </c>
-      <c r="D32" s="166">
+      <c r="D32" s="96">
         <f>AVERAGE(D22:D31)</f>
         <v>15.858000000000001</v>
       </c>
-      <c r="E32" s="155">
+      <c r="E32" s="85">
         <v>8.24</v>
       </c>
       <c r="F32" s="3">
         <v>1425</v>
       </c>
       <c r="G32" s="5">
-        <v>5.7999999999999996E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -46581,8 +46634,8 @@
       <c r="E33" s="19">
         <v>0</v>
       </c>
-      <c r="F33" s="95"/>
-      <c r="G33" s="96"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="123"/>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
@@ -46598,8 +46651,8 @@
       <c r="E34" s="19">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="F34" s="95"/>
-      <c r="G34" s="96"/>
+      <c r="F34" s="122"/>
+      <c r="G34" s="123"/>
     </row>
     <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
@@ -46623,15 +46676,15 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="112" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="86"/>
-      <c r="C36" s="86"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="87"/>
+      <c r="B36" s="113"/>
+      <c r="C36" s="113"/>
+      <c r="D36" s="113"/>
+      <c r="E36" s="113"/>
+      <c r="F36" s="113"/>
+      <c r="G36" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="10">
